--- a/BackTest/2020-01-26 BackTest MBL.xlsx
+++ b/BackTest/2020-01-26 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-28286.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-71102.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1.843</v>
@@ -521,7 +521,7 @@
         <v>-48213.86</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1.841</v>
@@ -562,7 +562,7 @@
         <v>-76052.86</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1.843</v>
@@ -603,7 +603,7 @@
         <v>-33588.86</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1.842</v>
@@ -640,7 +640,7 @@
         <v>-51744.86</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1.844</v>
@@ -681,7 +681,7 @@
         <v>-51744.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1.841</v>
@@ -722,7 +722,7 @@
         <v>-4391.860000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1.841</v>
@@ -759,7 +759,7 @@
         <v>36680.14</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1.842</v>
@@ -800,7 +800,7 @@
         <v>1969.139999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1.843</v>
@@ -841,7 +841,7 @@
         <v>1969.139999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1.841</v>
@@ -878,7 +878,7 @@
         <v>52686.14</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1.841</v>
@@ -919,7 +919,7 @@
         <v>81191.14</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1.842</v>
@@ -960,7 +960,7 @@
         <v>55156.14</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1.845</v>
@@ -997,7 +997,7 @@
         <v>22586.14</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1.844</v>
@@ -1038,7 +1038,7 @@
         <v>-5522.860000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1.843</v>
@@ -1079,7 +1079,7 @@
         <v>39795.14</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1.841</v>
@@ -1116,7 +1116,7 @@
         <v>39795.14</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1.842</v>
@@ -1157,7 +1157,7 @@
         <v>87269.14</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1.842</v>
@@ -1198,7 +1198,7 @@
         <v>66463.14</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1.844</v>
@@ -1235,7 +1235,7 @@
         <v>139356.2144</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1.843</v>
@@ -1276,7 +1276,7 @@
         <v>188124.2144</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1.844</v>
@@ -1317,7 +1317,7 @@
         <v>232817.2144</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1.845</v>
@@ -1358,7 +1358,7 @@
         <v>271151.0565763158</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1.848</v>
@@ -1399,7 +1399,7 @@
         <v>238452.0565763158</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1.9</v>
@@ -1440,7 +1440,7 @@
         <v>283051.0565763158</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1.847</v>
@@ -1481,7 +1481,7 @@
         <v>244211.0565763158</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1.85</v>
@@ -1522,7 +1522,7 @@
         <v>209706.0565763158</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1.847</v>
@@ -1563,7 +1563,7 @@
         <v>232669.0565763158</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1.846</v>
@@ -1604,7 +1604,7 @@
         <v>207297.0565763158</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1.847</v>
@@ -1645,7 +1645,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1.846</v>
@@ -1686,7 +1686,7 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1.848</v>
@@ -1727,7 +1727,7 @@
         <v>215932.0565763158</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1.848</v>
@@ -1768,7 +1768,7 @@
         <v>161308.2697763158</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1.845</v>
@@ -1809,7 +1809,7 @@
         <v>192721.2697763158</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1.842</v>
@@ -1850,7 +1850,7 @@
         <v>158614.2697763158</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1.844</v>
@@ -1891,7 +1891,7 @@
         <v>132251.2697763158</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1.843</v>
@@ -1932,7 +1932,7 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1.842</v>
@@ -1973,9 +1973,11 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J40" t="n">
         <v>1.844</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>126302.2697763158</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1.843</v>
@@ -2053,7 +2055,7 @@
         <v>174183.2697763158</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1.842</v>
@@ -2094,9 +2096,11 @@
         <v>174183.2697763158</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J43" t="n">
         <v>1.844</v>
       </c>
@@ -2133,9 +2137,11 @@
         <v>174183.2697763158</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J44" t="n">
         <v>1.844</v>
       </c>
@@ -2172,9 +2178,11 @@
         <v>174183.2697763158</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J45" t="n">
         <v>1.844</v>
       </c>
@@ -2211,9 +2219,11 @@
         <v>174183.2697763158</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J46" t="n">
         <v>1.844</v>
       </c>
@@ -2250,9 +2260,11 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J47" t="n">
         <v>1.844</v>
       </c>
@@ -2289,9 +2301,11 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J48" t="n">
         <v>1.844</v>
       </c>
@@ -2328,9 +2342,11 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J49" t="n">
         <v>1.844</v>
       </c>
@@ -2367,9 +2383,11 @@
         <v>235461.2697763158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J50" t="n">
         <v>1.844</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>279823.2697763158</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1.847</v>
@@ -2447,7 +2465,7 @@
         <v>241143.2697763158</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>1.848</v>
@@ -2488,7 +2506,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1.847</v>
@@ -2529,7 +2547,7 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1.846</v>
@@ -2570,7 +2588,7 @@
         <v>185161.2697763158</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>1.846</v>
@@ -2611,7 +2629,7 @@
         <v>233452.2697763158</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1.845</v>
@@ -2652,7 +2670,7 @@
         <v>272369.2697763158</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1.846</v>
@@ -2693,7 +2711,7 @@
         <v>315570.2697763158</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1.848</v>
@@ -2734,7 +2752,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1.85</v>
@@ -2775,7 +2793,7 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1.846</v>
@@ -2816,7 +2834,7 @@
         <v>313919.2697763158</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1.846</v>
@@ -2857,7 +2875,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1.847</v>
@@ -2898,7 +2916,7 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>1.848</v>
@@ -2939,7 +2957,7 @@
         <v>306670.2697763158</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1.848</v>
@@ -2980,7 +2998,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>1.847</v>
@@ -3021,7 +3039,7 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1.849</v>
@@ -3062,7 +3080,7 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>1.849</v>
@@ -3103,7 +3121,7 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>1.848</v>
@@ -3144,9 +3162,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J69" t="n">
         <v>1.844</v>
       </c>
@@ -3183,9 +3203,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J70" t="n">
         <v>1.844</v>
       </c>
@@ -3222,9 +3244,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J71" t="n">
         <v>1.844</v>
       </c>
@@ -3261,9 +3285,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J72" t="n">
         <v>1.844</v>
       </c>
@@ -3300,9 +3326,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J73" t="n">
         <v>1.844</v>
       </c>
@@ -3339,9 +3367,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J74" t="n">
         <v>1.844</v>
       </c>
@@ -3378,9 +3408,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J75" t="n">
         <v>1.844</v>
       </c>
@@ -3417,9 +3449,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J76" t="n">
         <v>1.844</v>
       </c>
@@ -3456,9 +3490,11 @@
         <v>358137.2697763158</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J77" t="n">
         <v>1.844</v>
       </c>
@@ -3495,9 +3531,11 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J78" t="n">
         <v>1.844</v>
       </c>
@@ -3534,9 +3572,11 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J79" t="n">
         <v>1.844</v>
       </c>
@@ -3573,9 +3613,11 @@
         <v>327174.2701763158</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J80" t="n">
         <v>1.844</v>
       </c>
@@ -3612,9 +3654,11 @@
         <v>289490.2701763158</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J81" t="n">
         <v>1.844</v>
       </c>
@@ -3651,9 +3695,11 @@
         <v>265980.2701763158</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J82" t="n">
         <v>1.844</v>
       </c>
@@ -3690,9 +3736,11 @@
         <v>290288.2701763158</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J83" t="n">
         <v>1.844</v>
       </c>
@@ -3729,9 +3777,11 @@
         <v>260148.2701763158</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J84" t="n">
         <v>1.844</v>
       </c>
@@ -3768,9 +3818,11 @@
         <v>229431.2701763158</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J85" t="n">
         <v>1.844</v>
       </c>
@@ -3807,9 +3859,11 @@
         <v>170903.3825763158</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J86" t="n">
         <v>1.844</v>
       </c>
@@ -3846,9 +3900,11 @@
         <v>194751.3825763158</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J87" t="n">
         <v>1.844</v>
       </c>
@@ -3885,9 +3941,11 @@
         <v>171062.3825763158</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J88" t="n">
         <v>1.844</v>
       </c>
@@ -3924,9 +3982,11 @@
         <v>171062.3825763158</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J89" t="n">
         <v>1.844</v>
       </c>
@@ -3963,9 +4023,11 @@
         <v>171062.3825763158</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J90" t="n">
         <v>1.844</v>
       </c>
@@ -4002,7 +4064,7 @@
         <v>171062.3825763158</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1.842</v>
@@ -4043,7 +4105,7 @@
         <v>171062.3825763158</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1.842</v>
@@ -4084,7 +4146,7 @@
         <v>198924.3825763158</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1.842</v>
@@ -4125,7 +4187,7 @@
         <v>225423.3825763158</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1.843</v>
@@ -4166,7 +4228,7 @@
         <v>185560.3825763158</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1.844</v>
@@ -4207,7 +4269,7 @@
         <v>185560.3825763158</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1.842</v>
@@ -4248,7 +4310,7 @@
         <v>185560.3825763158</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1.842</v>
@@ -4289,7 +4351,7 @@
         <v>207019.3825763158</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1.842</v>
@@ -4330,7 +4392,7 @@
         <v>207019.3825763158</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1.843</v>
@@ -4371,7 +4433,7 @@
         <v>251669.3825763158</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1.843</v>
@@ -4412,9 +4474,11 @@
         <v>219207.3825763158</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J101" t="n">
         <v>1.844</v>
       </c>
@@ -4451,9 +4515,11 @@
         <v>219207.3825763158</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J102" t="n">
         <v>1.844</v>
       </c>
@@ -4490,9 +4556,11 @@
         <v>219207.3825763158</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J103" t="n">
         <v>1.844</v>
       </c>
@@ -4529,9 +4597,11 @@
         <v>271360.3825763158</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J104" t="n">
         <v>1.844</v>
       </c>
@@ -4568,9 +4638,11 @@
         <v>271360.3825763158</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J105" t="n">
         <v>1.844</v>
       </c>
@@ -4607,7 +4679,7 @@
         <v>271360.3825763158</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>1.843</v>
@@ -4648,7 +4720,7 @@
         <v>271360.3825763158</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>1.843</v>
@@ -4689,7 +4761,7 @@
         <v>321053.3825763158</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>1.843</v>
@@ -4730,7 +4802,7 @@
         <v>321053.3825763158</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>1.845</v>
@@ -4771,7 +4843,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>1.845</v>
@@ -4812,7 +4884,7 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1.851</v>
@@ -4853,9 +4925,11 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J112" t="n">
         <v>1.844</v>
       </c>
@@ -4892,9 +4966,11 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J113" t="n">
         <v>1.844</v>
       </c>
@@ -4931,9 +5007,11 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J114" t="n">
         <v>1.844</v>
       </c>
@@ -4970,9 +5048,11 @@
         <v>342443.3825763158</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J115" t="n">
         <v>1.844</v>
       </c>
@@ -5009,9 +5089,11 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J116" t="n">
         <v>1.844</v>
       </c>
@@ -5048,9 +5130,11 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J117" t="n">
         <v>1.844</v>
       </c>
@@ -5087,9 +5171,11 @@
         <v>271176.3825763158</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J118" t="n">
         <v>1.844</v>
       </c>
@@ -5126,9 +5212,11 @@
         <v>226311.3825763158</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J119" t="n">
         <v>1.844</v>
       </c>
@@ -5165,9 +5253,11 @@
         <v>267696.3825763158</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J120" t="n">
         <v>1.844</v>
       </c>
@@ -5204,9 +5294,11 @@
         <v>237740.3825763158</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J121" t="n">
         <v>1.844</v>
       </c>
@@ -5243,9 +5335,11 @@
         <v>237740.3825763158</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J122" t="n">
         <v>1.844</v>
       </c>
@@ -5282,9 +5376,11 @@
         <v>267567.3825763158</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J123" t="n">
         <v>1.844</v>
       </c>
@@ -5321,9 +5417,11 @@
         <v>303844.3825763158</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J124" t="n">
         <v>1.844</v>
       </c>
@@ -5360,9 +5458,11 @@
         <v>270822.3825763158</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J125" t="n">
         <v>1.844</v>
       </c>
@@ -5399,9 +5499,11 @@
         <v>270822.3825763158</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J126" t="n">
         <v>1.844</v>
       </c>
@@ -5438,9 +5540,11 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J127" t="n">
         <v>1.844</v>
       </c>
@@ -5477,9 +5581,11 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J128" t="n">
         <v>1.844</v>
       </c>
@@ -5516,9 +5622,11 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J129" t="n">
         <v>1.844</v>
       </c>
@@ -5555,9 +5663,11 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J130" t="n">
         <v>1.844</v>
       </c>
@@ -5594,9 +5704,11 @@
         <v>303132.3825763158</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J131" t="n">
         <v>1.844</v>
       </c>
@@ -5633,9 +5745,11 @@
         <v>341069.3825763158</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J132" t="n">
         <v>1.844</v>
       </c>
@@ -5672,9 +5786,11 @@
         <v>341069.3825763158</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J133" t="n">
         <v>1.844</v>
       </c>
@@ -5711,9 +5827,11 @@
         <v>363153.3825763158</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J134" t="n">
         <v>1.844</v>
       </c>
@@ -5750,9 +5868,11 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J135" t="n">
         <v>1.844</v>
       </c>
@@ -5789,9 +5909,11 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J136" t="n">
         <v>1.844</v>
       </c>
@@ -5828,9 +5950,11 @@
         <v>321497.3825763158</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J137" t="n">
         <v>1.844</v>
       </c>
@@ -5867,9 +5991,11 @@
         <v>364181.3825763158</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J138" t="n">
         <v>1.844</v>
       </c>
@@ -5906,9 +6032,11 @@
         <v>382634.3825763158</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J139" t="n">
         <v>1.844</v>
       </c>
@@ -5945,9 +6073,11 @@
         <v>336347.3825763158</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J140" t="n">
         <v>1.844</v>
       </c>
@@ -5984,9 +6114,11 @@
         <v>336347.3825763158</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J141" t="n">
         <v>1.844</v>
       </c>
@@ -6023,9 +6155,11 @@
         <v>382404.3825763158</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J142" t="n">
         <v>1.844</v>
       </c>
@@ -6062,9 +6196,11 @@
         <v>359918.3825763158</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J143" t="n">
         <v>1.844</v>
       </c>
@@ -6101,9 +6237,11 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.851</v>
+      </c>
       <c r="J144" t="n">
         <v>1.844</v>
       </c>
@@ -6140,9 +6278,11 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J145" t="n">
         <v>1.844</v>
       </c>
@@ -6179,9 +6319,11 @@
         <v>452335.3825763158</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J146" t="n">
         <v>1.844</v>
       </c>
@@ -6218,9 +6360,11 @@
         <v>489776.3825763158</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J147" t="n">
         <v>1.844</v>
       </c>
@@ -6257,9 +6401,11 @@
         <v>520220.3825763158</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.856</v>
+      </c>
       <c r="J148" t="n">
         <v>1.844</v>
       </c>
@@ -6296,9 +6442,11 @@
         <v>474929.3825763158</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1.859</v>
+      </c>
       <c r="J149" t="n">
         <v>1.844</v>
       </c>
@@ -6335,9 +6483,11 @@
         <v>437821.3825763158</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1.858</v>
+      </c>
       <c r="J150" t="n">
         <v>1.844</v>
       </c>
@@ -6374,9 +6524,11 @@
         <v>437821.3825763158</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J151" t="n">
         <v>1.844</v>
       </c>
@@ -6413,9 +6565,11 @@
         <v>395503.3825763158</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J152" t="n">
         <v>1.844</v>
       </c>
@@ -6452,9 +6606,11 @@
         <v>348620.3825763158</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J153" t="n">
         <v>1.844</v>
       </c>
@@ -6491,9 +6647,11 @@
         <v>321789.3825763158</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J154" t="n">
         <v>1.844</v>
       </c>
@@ -6530,9 +6688,11 @@
         <v>378521.3825763158</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J155" t="n">
         <v>1.844</v>
       </c>
@@ -6569,9 +6729,11 @@
         <v>341804.3825763158</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J156" t="n">
         <v>1.844</v>
       </c>
@@ -6608,9 +6770,11 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J157" t="n">
         <v>1.844</v>
       </c>
@@ -6647,9 +6811,11 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J158" t="n">
         <v>1.844</v>
       </c>
@@ -6686,9 +6852,11 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J159" t="n">
         <v>1.844</v>
       </c>
@@ -6725,9 +6893,11 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J160" t="n">
         <v>1.844</v>
       </c>
@@ -6764,9 +6934,11 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J161" t="n">
         <v>1.844</v>
       </c>
@@ -6803,9 +6975,11 @@
         <v>414015.3825763158</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J162" t="n">
         <v>1.844</v>
       </c>
@@ -6842,9 +7016,11 @@
         <v>414015.3825763158</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J163" t="n">
         <v>1.844</v>
       </c>
@@ -6881,9 +7057,11 @@
         <v>384543.6936763158</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J164" t="n">
         <v>1.844</v>
       </c>
@@ -6920,9 +7098,11 @@
         <v>415644.7926763158</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J165" t="n">
         <v>1.844</v>
       </c>
@@ -6959,9 +7139,11 @@
         <v>388340.7926763158</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.879</v>
+      </c>
       <c r="J166" t="n">
         <v>1.844</v>
       </c>
@@ -6998,9 +7180,11 @@
         <v>388340.7926763158</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J167" t="n">
         <v>1.844</v>
       </c>
@@ -7037,9 +7221,11 @@
         <v>444476.7926763158</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J168" t="n">
         <v>1.844</v>
       </c>
@@ -7076,9 +7262,11 @@
         <v>420634.7926763158</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J169" t="n">
         <v>1.844</v>
       </c>
@@ -7115,9 +7303,11 @@
         <v>456430.7926763158</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J170" t="n">
         <v>1.844</v>
       </c>
@@ -7154,9 +7344,11 @@
         <v>501936.7926763158</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J171" t="n">
         <v>1.844</v>
       </c>
@@ -7193,9 +7385,11 @@
         <v>547624.7926763158</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J172" t="n">
         <v>1.844</v>
       </c>
@@ -7232,9 +7426,11 @@
         <v>568699.7926763158</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.856</v>
+      </c>
       <c r="J173" t="n">
         <v>1.844</v>
       </c>
@@ -7271,9 +7467,11 @@
         <v>537612.7926763158</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J174" t="n">
         <v>1.844</v>
       </c>
@@ -7310,9 +7508,11 @@
         <v>571754.7926763158</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.856</v>
+      </c>
       <c r="J175" t="n">
         <v>1.844</v>
       </c>
@@ -7349,9 +7549,11 @@
         <v>544624.7926763158</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J176" t="n">
         <v>1.844</v>
       </c>
@@ -7388,9 +7590,11 @@
         <v>584936.7926763158</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.856</v>
+      </c>
       <c r="J177" t="n">
         <v>1.844</v>
       </c>
@@ -7427,9 +7631,11 @@
         <v>584936.7926763158</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J178" t="n">
         <v>1.844</v>
       </c>
@@ -7466,9 +7672,11 @@
         <v>558456.7926763158</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.857</v>
+      </c>
       <c r="J179" t="n">
         <v>1.844</v>
       </c>
@@ -7505,9 +7713,11 @@
         <v>558456.7926763158</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J180" t="n">
         <v>1.844</v>
       </c>
@@ -7544,9 +7754,11 @@
         <v>528453.7926763158</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.855</v>
+      </c>
       <c r="J181" t="n">
         <v>1.844</v>
       </c>
@@ -7583,9 +7795,11 @@
         <v>504632.7926763158</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.854</v>
+      </c>
       <c r="J182" t="n">
         <v>1.844</v>
       </c>
@@ -7622,9 +7836,11 @@
         <v>466894.7926763158</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.853</v>
+      </c>
       <c r="J183" t="n">
         <v>1.844</v>
       </c>
@@ -7661,9 +7877,11 @@
         <v>417109.7926763158</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J184" t="n">
         <v>1.844</v>
       </c>
@@ -7700,9 +7918,11 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J185" t="n">
         <v>1.844</v>
       </c>
@@ -7739,9 +7959,11 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J186" t="n">
         <v>1.844</v>
       </c>
@@ -7778,9 +8000,11 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J187" t="n">
         <v>1.844</v>
       </c>
@@ -7817,9 +8041,11 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J188" t="n">
         <v>1.844</v>
       </c>
@@ -7856,9 +8082,11 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J189" t="n">
         <v>1.844</v>
       </c>
@@ -7895,9 +8123,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J190" t="n">
         <v>1.844</v>
       </c>
@@ -7934,9 +8164,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J191" t="n">
         <v>1.844</v>
       </c>
@@ -7973,9 +8205,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J192" t="n">
         <v>1.844</v>
       </c>
@@ -8012,9 +8246,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J193" t="n">
         <v>1.844</v>
       </c>
@@ -8051,9 +8287,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J194" t="n">
         <v>1.844</v>
       </c>
@@ -8090,9 +8328,11 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J195" t="n">
         <v>1.844</v>
       </c>
@@ -8129,9 +8369,11 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J196" t="n">
         <v>1.844</v>
       </c>
@@ -8168,9 +8410,11 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J197" t="n">
         <v>1.844</v>
       </c>
@@ -8207,9 +8451,11 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J198" t="n">
         <v>1.844</v>
       </c>
@@ -8246,9 +8492,11 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J199" t="n">
         <v>1.844</v>
       </c>
@@ -8285,9 +8533,11 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J200" t="n">
         <v>1.844</v>
       </c>
@@ -8324,9 +8574,11 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J201" t="n">
         <v>1.844</v>
       </c>
@@ -8363,9 +8615,11 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J202" t="n">
         <v>1.844</v>
       </c>
@@ -8402,9 +8656,11 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J203" t="n">
         <v>1.844</v>
       </c>
@@ -8441,9 +8697,11 @@
         <v>507450.7926763158</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J204" t="n">
         <v>1.844</v>
       </c>
@@ -8480,9 +8738,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J205" t="n">
         <v>1.844</v>
       </c>
@@ -8519,9 +8779,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J206" t="n">
         <v>1.844</v>
       </c>
@@ -8558,9 +8820,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J207" t="n">
         <v>1.844</v>
       </c>
@@ -8597,9 +8861,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J208" t="n">
         <v>1.844</v>
       </c>
@@ -8636,9 +8902,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J209" t="n">
         <v>1.844</v>
       </c>
@@ -8675,9 +8943,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J210" t="n">
         <v>1.844</v>
       </c>
@@ -8714,9 +8984,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J211" t="n">
         <v>1.844</v>
       </c>
@@ -8753,9 +9025,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J212" t="n">
         <v>1.844</v>
       </c>
@@ -8792,9 +9066,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J213" t="n">
         <v>1.844</v>
       </c>
@@ -8831,9 +9107,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J214" t="n">
         <v>1.844</v>
       </c>
@@ -8870,9 +9148,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J215" t="n">
         <v>1.844</v>
       </c>
@@ -8909,9 +9189,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J216" t="n">
         <v>1.844</v>
       </c>
@@ -8948,9 +9230,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J217" t="n">
         <v>1.844</v>
       </c>
@@ -8987,9 +9271,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J218" t="n">
         <v>1.844</v>
       </c>
@@ -9026,9 +9312,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J219" t="n">
         <v>1.844</v>
       </c>
@@ -9065,9 +9353,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J220" t="n">
         <v>1.844</v>
       </c>
@@ -9104,9 +9394,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J221" t="n">
         <v>1.844</v>
       </c>
@@ -9143,9 +9435,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J222" t="n">
         <v>1.844</v>
       </c>
@@ -9182,9 +9476,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J223" t="n">
         <v>1.844</v>
       </c>
@@ -9221,9 +9517,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J224" t="n">
         <v>1.844</v>
       </c>
@@ -9260,9 +9558,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J225" t="n">
         <v>1.844</v>
       </c>
@@ -9299,9 +9599,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J226" t="n">
         <v>1.844</v>
       </c>
@@ -9338,9 +9640,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J227" t="n">
         <v>1.844</v>
       </c>
@@ -9377,9 +9681,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J228" t="n">
         <v>1.844</v>
       </c>
@@ -9416,9 +9722,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J229" t="n">
         <v>1.844</v>
       </c>
@@ -9455,9 +9763,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J230" t="n">
         <v>1.844</v>
       </c>
@@ -9494,9 +9804,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J231" t="n">
         <v>1.844</v>
       </c>
@@ -9533,9 +9845,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J232" t="n">
         <v>1.844</v>
       </c>
@@ -9572,9 +9886,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J233" t="n">
         <v>1.844</v>
       </c>
@@ -9611,9 +9927,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J234" t="n">
         <v>1.844</v>
       </c>
@@ -9650,9 +9968,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J235" t="n">
         <v>1.844</v>
       </c>
@@ -9689,9 +10009,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J236" t="n">
         <v>1.844</v>
       </c>
@@ -9728,9 +10050,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J237" t="n">
         <v>1.844</v>
       </c>
@@ -9767,9 +10091,11 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J238" t="n">
         <v>1.844</v>
       </c>
@@ -9806,9 +10132,11 @@
         <v>411454.4357763157</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J239" t="n">
         <v>1.844</v>
       </c>
@@ -9845,9 +10173,11 @@
         <v>448741.5347763157</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J240" t="n">
         <v>1.844</v>
       </c>
@@ -9884,9 +10214,11 @@
         <v>419237.5347763157</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J241" t="n">
         <v>1.844</v>
       </c>
@@ -9923,9 +10255,11 @@
         <v>381997.5347763157</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J242" t="n">
         <v>1.844</v>
       </c>
@@ -9962,9 +10296,11 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J243" t="n">
         <v>1.844</v>
       </c>
@@ -10001,9 +10337,11 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J244" t="n">
         <v>1.844</v>
       </c>
@@ -10040,9 +10378,11 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J245" t="n">
         <v>1.844</v>
       </c>
@@ -10079,9 +10419,11 @@
         <v>287157.5347763157</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J246" t="n">
         <v>1.844</v>
       </c>
@@ -10118,9 +10460,11 @@
         <v>265180.5347763157</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J247" t="n">
         <v>1.844</v>
       </c>
@@ -10157,9 +10501,11 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J248" t="n">
         <v>1.844</v>
       </c>
@@ -10196,9 +10542,11 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J249" t="n">
         <v>1.844</v>
       </c>
@@ -10235,9 +10583,11 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J250" t="n">
         <v>1.844</v>
       </c>
@@ -10274,7 +10624,7 @@
         <v>364112.5347763157</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>1.844</v>
@@ -10315,7 +10665,7 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>1.845</v>
@@ -10356,7 +10706,7 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>1.844</v>
@@ -10397,9 +10747,11 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J254" t="n">
         <v>1.844</v>
       </c>
@@ -10436,9 +10788,11 @@
         <v>362871.5347763157</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J255" t="n">
         <v>1.844</v>
       </c>
@@ -10475,9 +10829,11 @@
         <v>333249.5347763157</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J256" t="n">
         <v>1.844</v>
       </c>
@@ -10514,9 +10870,11 @@
         <v>366498.5347763157</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J257" t="n">
         <v>1.844</v>
       </c>
@@ -10553,9 +10911,11 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J258" t="n">
         <v>1.844</v>
       </c>
@@ -10592,9 +10952,11 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J259" t="n">
         <v>1.844</v>
       </c>
@@ -10631,9 +10993,11 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J260" t="n">
         <v>1.844</v>
       </c>
@@ -10670,9 +11034,11 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J261" t="n">
         <v>1.844</v>
       </c>
@@ -10709,9 +11075,11 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J262" t="n">
         <v>1.844</v>
       </c>
@@ -10748,9 +11116,11 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J263" t="n">
         <v>1.844</v>
       </c>
@@ -10787,9 +11157,11 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J264" t="n">
         <v>1.844</v>
       </c>
@@ -10826,9 +11198,11 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J265" t="n">
         <v>1.844</v>
       </c>
@@ -10865,9 +11239,11 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J266" t="n">
         <v>1.844</v>
       </c>
@@ -10904,9 +11280,11 @@
         <v>424026.5347763157</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J267" t="n">
         <v>1.844</v>
       </c>
@@ -10943,9 +11321,11 @@
         <v>424026.5347763157</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J268" t="n">
         <v>1.844</v>
       </c>
@@ -10982,7 +11362,7 @@
         <v>452881.5347763157</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>1.847</v>
@@ -11023,9 +11403,11 @@
         <v>485905.5347763157</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J270" t="n">
         <v>1.844</v>
       </c>
@@ -11062,9 +11444,11 @@
         <v>509702.5347763157</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J271" t="n">
         <v>1.844</v>
       </c>
@@ -11101,9 +11485,11 @@
         <v>1661403.563190363</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J272" t="n">
         <v>1.844</v>
       </c>
@@ -11374,9 +11760,11 @@
         <v>1190904.87670441</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J279" t="n">
         <v>1.844</v>
       </c>
@@ -11413,9 +11801,11 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J280" t="n">
         <v>1.844</v>
       </c>
@@ -11452,7 +11842,7 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>1.86</v>
@@ -11493,7 +11883,7 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>1.86</v>
@@ -11534,7 +11924,7 @@
         <v>1131361.87670441</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>1.86</v>
@@ -11575,7 +11965,7 @@
         <v>1156191.87670441</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>1.859</v>
@@ -11616,9 +12006,11 @@
         <v>1199857.87670441</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1.86</v>
+      </c>
       <c r="J285" t="n">
         <v>1.844</v>
       </c>
@@ -11655,9 +12047,11 @@
         <v>1170153.87670441</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1.862</v>
+      </c>
       <c r="J286" t="n">
         <v>1.844</v>
       </c>
@@ -11694,9 +12088,11 @@
         <v>1140647.87670441</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J287" t="n">
         <v>1.844</v>
       </c>
@@ -11733,9 +12129,11 @@
         <v>1095969.87670441</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1.86</v>
+      </c>
       <c r="J288" t="n">
         <v>1.844</v>
       </c>
@@ -11928,9 +12326,11 @@
         <v>1079784.87670441</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J293" t="n">
         <v>1.844</v>
       </c>
@@ -11967,9 +12367,11 @@
         <v>1121577.87670441</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.86</v>
+      </c>
       <c r="J294" t="n">
         <v>1.844</v>
       </c>
@@ -12084,9 +12486,11 @@
         <v>1102691.87670441</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.863</v>
+      </c>
       <c r="J297" t="n">
         <v>1.844</v>
       </c>
@@ -12123,9 +12527,11 @@
         <v>1102691.87670441</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J298" t="n">
         <v>1.844</v>
       </c>
@@ -12201,9 +12607,11 @@
         <v>1022764.87670441</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.859</v>
+      </c>
       <c r="J300" t="n">
         <v>1.844</v>
       </c>
@@ -12240,9 +12648,11 @@
         <v>1057953.87670441</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.856</v>
+      </c>
       <c r="J301" t="n">
         <v>1.844</v>
       </c>
@@ -12279,9 +12689,11 @@
         <v>1085048.87670441</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J302" t="n">
         <v>1.844</v>
       </c>
@@ -12318,9 +12730,11 @@
         <v>1061127.87670441</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1.863</v>
+      </c>
       <c r="J303" t="n">
         <v>1.844</v>
       </c>
@@ -12357,9 +12771,11 @@
         <v>1100965.87670441</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1.861</v>
+      </c>
       <c r="J304" t="n">
         <v>1.844</v>
       </c>
@@ -12396,9 +12812,11 @@
         <v>1145898.87670441</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1.863</v>
+      </c>
       <c r="J305" t="n">
         <v>1.844</v>
       </c>
@@ -12513,9 +12931,11 @@
         <v>1134076.87670441</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1.863</v>
+      </c>
       <c r="J308" t="n">
         <v>1.844</v>
       </c>
@@ -12552,9 +12972,11 @@
         <v>1160697.87670441</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1.865</v>
+      </c>
       <c r="J309" t="n">
         <v>1.844</v>
       </c>
@@ -12591,9 +13013,11 @@
         <v>1160697.87670441</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1.867</v>
+      </c>
       <c r="J310" t="n">
         <v>1.844</v>
       </c>
@@ -12903,9 +13327,11 @@
         <v>1168088.87670441</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.862</v>
+      </c>
       <c r="J318" t="n">
         <v>1.844</v>
       </c>
@@ -19104,7 +19530,7 @@
         <v>3065906.714366281</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
@@ -19112,13 +19538,15 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
+        <v>1.089360086767896</v>
+      </c>
+      <c r="M477" t="n">
+        <v>1.002172732210755</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -19143,17 +19571,11 @@
         <v>3108373.714366281</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19182,17 +19604,11 @@
         <v>3146852.314066282</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19221,17 +19637,11 @@
         <v>3105530.314066282</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19260,17 +19670,11 @@
         <v>3049975.917066282</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19299,17 +19703,11 @@
         <v>3084189.917066282</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19338,17 +19736,11 @@
         <v>2997325.454366282</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19377,17 +19769,11 @@
         <v>2948503.141266282</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19416,17 +19802,11 @@
         <v>3117869.924866282</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19455,17 +19835,11 @@
         <v>3015008.618866282</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19497,14 +19871,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19536,14 +19904,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19575,14 +19937,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19614,14 +19970,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19653,14 +20003,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19692,14 +20036,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19728,17 +20066,11 @@
         <v>2637461.961266282</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19770,14 +20102,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19806,17 +20132,11 @@
         <v>2440576.120266282</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19845,17 +20165,11 @@
         <v>2460215.120266282</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19884,17 +20198,11 @@
         <v>2460215.120266282</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19926,14 +20234,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19965,14 +20267,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20004,14 +20300,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20043,14 +20333,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20082,14 +20366,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20121,14 +20399,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20160,14 +20432,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20199,14 +20465,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20238,14 +20498,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20277,14 +20531,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20316,14 +20564,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20355,14 +20597,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20394,14 +20630,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20433,14 +20663,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20472,14 +20696,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20511,14 +20729,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20550,14 +20762,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20589,14 +20795,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20628,14 +20828,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20667,14 +20861,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20706,14 +20894,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20745,14 +20927,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20784,14 +20960,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20823,14 +20993,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20862,14 +21026,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20901,14 +21059,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20940,14 +21092,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20979,14 +21125,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21018,14 +21158,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21057,14 +21191,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21096,14 +21224,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21135,14 +21257,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21174,14 +21290,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21213,14 +21323,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21252,14 +21356,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21291,14 +21389,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21330,14 +21422,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21369,14 +21455,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21408,14 +21488,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21447,14 +21521,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21486,14 +21554,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21525,14 +21587,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21564,14 +21620,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21603,14 +21653,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21642,14 +21686,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21681,14 +21719,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21720,14 +21752,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21759,14 +21785,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21798,14 +21818,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21837,14 +21851,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21876,14 +21884,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21915,14 +21917,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21954,14 +21950,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21993,14 +21983,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22032,14 +22016,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22071,14 +22049,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22110,14 +22082,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22149,14 +22115,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22188,14 +22148,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22227,14 +22181,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22266,14 +22214,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22305,14 +22247,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22344,14 +22280,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22383,14 +22313,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22422,14 +22346,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22461,14 +22379,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22500,14 +22412,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22539,14 +22445,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22578,14 +22478,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22617,14 +22511,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22656,14 +22544,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22695,14 +22577,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22734,14 +22610,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22773,14 +22643,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22812,14 +22676,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22851,14 +22709,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22890,14 +22742,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22929,14 +22775,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22968,14 +22808,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23007,14 +22841,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23046,14 +22874,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23085,14 +22907,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23124,14 +22940,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23163,14 +22973,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23202,14 +23006,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23241,14 +23039,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23280,14 +23072,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23316,23 +23102,15 @@
         <v>4388598.096232501</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
-        <v>1.105629067245119</v>
-      </c>
-      <c r="M585" t="n">
-        <v>1.002172732210755</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -23390,7 +23168,7 @@
         <v>4447820.757832501</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23687,7 +23465,7 @@
         <v>4477595.757832501</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23720,7 +23498,7 @@
         <v>4452053.757832501</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23753,7 +23531,7 @@
         <v>4486379.757832501</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23786,7 +23564,7 @@
         <v>4448961.757832501</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23819,7 +23597,7 @@
         <v>4475802.757832501</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23852,7 +23630,7 @@
         <v>4448168.757832501</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23885,7 +23663,7 @@
         <v>4479141.757832501</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23918,7 +23696,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23951,7 +23729,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -24017,7 +23795,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24050,7 +23828,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24083,7 +23861,7 @@
         <v>4404762.757832501</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -24116,7 +23894,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -24149,7 +23927,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24677,7 +24455,7 @@
         <v>4511070.037332501</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24776,7 +24554,7 @@
         <v>4563243.760632501</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24809,7 +24587,7 @@
         <v>4359395.397932501</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24842,7 +24620,7 @@
         <v>4403035.397932501</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24908,7 +24686,7 @@
         <v>4441243.397932501</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24941,7 +24719,7 @@
         <v>4393447.397932501</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24974,7 +24752,7 @@
         <v>4351975.397932501</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25007,7 +24785,7 @@
         <v>4351975.397932501</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25040,7 +24818,7 @@
         <v>4313323.397932501</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25073,7 +24851,7 @@
         <v>4313323.397932501</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25106,7 +24884,7 @@
         <v>4266750.397932501</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25139,7 +24917,7 @@
         <v>4214844.397932501</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25172,7 +24950,7 @@
         <v>4246993.397932501</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -25205,7 +24983,7 @@
         <v>4271833.397932501</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25238,7 +25016,7 @@
         <v>4226957.397932501</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25271,7 +25049,7 @@
         <v>4249387.116495375</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25898,7 +25676,7 @@
         <v>4016811.478364437</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25997,7 +25775,7 @@
         <v>4000997.478364437</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26030,7 +25808,7 @@
         <v>3967382.478364437</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26063,7 +25841,7 @@
         <v>3923657.478364437</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26327,7 +26105,7 @@
         <v>3662980.260264437</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26360,7 +26138,7 @@
         <v>3662980.260264437</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26393,7 +26171,7 @@
         <v>3619058.260264437</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26426,7 +26204,7 @@
         <v>3530730.601164437</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26459,7 +26237,7 @@
         <v>3310124.104864437</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26492,7 +26270,7 @@
         <v>3239358.360764437</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26525,7 +26303,7 @@
         <v>3122973.574764438</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26558,7 +26336,7 @@
         <v>3072022.574764438</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26591,7 +26369,7 @@
         <v>3043998.574764438</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26624,7 +26402,7 @@
         <v>3000864.574764438</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -30353,7 +30131,7 @@
         <v>4097492.017916963</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30386,7 +30164,7 @@
         <v>4062570.017916963</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30419,7 +30197,7 @@
         <v>4092254.017916963</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30452,7 +30230,7 @@
         <v>4153983.513616963</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30485,7 +30263,7 @@
         <v>4183184.513616963</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30914,7 +30692,7 @@
         <v>3607028.326616963</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30947,7 +30725,7 @@
         <v>3607028.326616963</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30980,7 +30758,7 @@
         <v>3393992.924316963</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -41507,10 +41285,14 @@
         <v>-551625.5307154175</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>1.896</v>
+      </c>
       <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
@@ -41540,11 +41322,19 @@
         <v>-599037.5307154175</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -41573,11 +41363,19 @@
         <v>-649981.5307154175</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -41606,10 +41404,14 @@
         <v>-680873.5307154175</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>1.893</v>
+      </c>
       <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
@@ -41639,11 +41441,19 @@
         <v>-680873.5307154175</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -41672,11 +41482,19 @@
         <v>-710145.5307154175</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -41705,11 +41523,19 @@
         <v>-769376.4384154174</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -41738,11 +41564,19 @@
         <v>-733603.5045154174</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -41771,11 +41605,19 @@
         <v>-772284.5045154174</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -41804,11 +41646,19 @@
         <v>-812909.5045154174</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -41837,11 +41687,19 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -41870,11 +41728,19 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -41903,11 +41769,19 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -41936,11 +41810,19 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -41969,11 +41851,19 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -42002,11 +41892,19 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -42035,11 +41933,19 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -42068,11 +41974,19 @@
         <v>-969854.7679154173</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -42101,11 +42015,19 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -42134,11 +42056,19 @@
         <v>-946239.7389154173</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -42167,11 +42097,19 @@
         <v>-945939.7389154173</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -42200,11 +42138,19 @@
         <v>-912294.7389154173</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -42233,11 +42179,19 @@
         <v>-825781.7389154173</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -42266,11 +42220,19 @@
         <v>-866669.7389154173</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -42299,11 +42261,19 @@
         <v>-907937.9415154173</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -42332,11 +42302,19 @@
         <v>-875823.1441154173</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -42365,11 +42343,19 @@
         <v>-796565.9408154173</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -42398,11 +42384,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -42431,11 +42425,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -42464,11 +42466,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -42497,11 +42507,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -42530,11 +42548,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -42563,11 +42589,19 @@
         <v>-848037.9415154173</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -42596,11 +42630,19 @@
         <v>-847737.9415154173</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -42629,11 +42671,19 @@
         <v>-814003.9415154173</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -42662,11 +42712,19 @@
         <v>-774919.9415154173</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -42695,11 +42753,19 @@
         <v>-745931.9415154173</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -42728,11 +42794,19 @@
         <v>-693538.9415154173</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -42764,8 +42838,14 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -42797,8 +42877,14 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -42830,8 +42916,14 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -42860,11 +42952,19 @@
         <v>-767123.2109154173</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -42893,11 +42993,19 @@
         <v>-736493.2109154173</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -42926,11 +43034,19 @@
         <v>-685638.2109154173</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -42959,11 +43075,19 @@
         <v>-685638.2109154173</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -42992,11 +43116,19 @@
         <v>-714165.2109154173</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -43028,8 +43160,14 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -43061,8 +43199,14 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -43094,8 +43238,14 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -43127,8 +43277,14 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -43160,8 +43316,14 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -43190,11 +43352,19 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -43223,11 +43393,19 @@
         <v>-813475.2109154173</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -43256,11 +43434,19 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -43289,11 +43475,19 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -43322,11 +43516,19 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -43355,11 +43557,19 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -43388,11 +43598,19 @@
         <v>-725771.2109154173</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -43421,11 +43639,19 @@
         <v>-681061.2109154173</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -43457,8 +43683,14 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -43490,8 +43722,14 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -43523,8 +43761,14 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -43556,8 +43800,14 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -43589,8 +43839,14 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -43622,8 +43878,14 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -43655,8 +43917,14 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -43688,8 +43956,14 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -43721,8 +43995,14 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -43754,8 +44034,14 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -43787,8 +44073,14 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -43820,8 +44112,14 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -43853,8 +44151,14 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -43883,11 +44187,19 @@
         <v>-774105.6777154173</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -43916,11 +44228,19 @@
         <v>-809501.6777154173</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -43949,11 +44269,19 @@
         <v>-785919.6777154173</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -43982,11 +44310,19 @@
         <v>-743077.6777154173</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -44018,8 +44354,14 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -44051,8 +44393,14 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -44084,8 +44432,14 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -44117,8 +44471,14 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -44150,8 +44510,14 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -44183,8 +44549,14 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -44216,8 +44588,14 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -44246,11 +44624,19 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -44282,8 +44668,14 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -44315,8 +44707,14 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -44348,8 +44746,14 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -44381,8 +44785,14 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -44414,8 +44824,14 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -44447,8 +44863,14 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -44480,8 +44902,14 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -44513,8 +44941,14 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -44546,8 +44980,14 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -44579,8 +45019,14 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -44609,11 +45055,19 @@
         <v>-793151.6777154173</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -44642,11 +45096,19 @@
         <v>-836870.6777154173</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -44675,11 +45137,19 @@
         <v>-886576.6777154173</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -44708,17 +45178,25 @@
         <v>-920494.6777154173</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
       <c r="M1233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest MBL.xlsx
+++ b/BackTest/2020-01-26 BackTest MBL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1399,11 +1399,9 @@
         <v>238452.0565763158</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1.844</v>
       </c>
@@ -1440,11 +1438,9 @@
         <v>283051.0565763158</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>1.844</v>
       </c>
@@ -1481,11 +1477,9 @@
         <v>244211.0565763158</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>1.844</v>
       </c>
@@ -1522,11 +1516,9 @@
         <v>209706.0565763158</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>1.844</v>
       </c>
@@ -1563,11 +1555,9 @@
         <v>232669.0565763158</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1.844</v>
       </c>
@@ -1604,11 +1594,9 @@
         <v>207297.0565763158</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1.844</v>
       </c>
@@ -1645,11 +1633,9 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>1.844</v>
       </c>
@@ -1686,11 +1672,9 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>1.844</v>
       </c>
@@ -1727,11 +1711,9 @@
         <v>215932.0565763158</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>1.844</v>
       </c>
@@ -1768,11 +1750,9 @@
         <v>161308.2697763158</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>1.844</v>
       </c>
@@ -1809,11 +1789,9 @@
         <v>192721.2697763158</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>1.844</v>
       </c>
@@ -1850,11 +1828,9 @@
         <v>158614.2697763158</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>1.844</v>
       </c>
@@ -1891,11 +1867,9 @@
         <v>132251.2697763158</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>1.844</v>
       </c>
@@ -1932,11 +1906,9 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>1.844</v>
       </c>
@@ -2014,11 +1986,9 @@
         <v>126302.2697763158</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>1.844</v>
       </c>
@@ -2342,11 +2312,9 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>1.844</v>
       </c>
@@ -2383,11 +2351,9 @@
         <v>235461.2697763158</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>1.844</v>
       </c>
@@ -2424,11 +2390,9 @@
         <v>279823.2697763158</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>1.844</v>
       </c>
@@ -2465,11 +2429,9 @@
         <v>241143.2697763158</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>1.844</v>
       </c>
@@ -2506,11 +2468,9 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>1.844</v>
       </c>
@@ -2547,11 +2507,9 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>1.844</v>
       </c>
@@ -2588,11 +2546,9 @@
         <v>185161.2697763158</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>1.844</v>
       </c>
@@ -2629,11 +2585,9 @@
         <v>233452.2697763158</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>1.844</v>
       </c>
@@ -2670,11 +2624,9 @@
         <v>272369.2697763158</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>1.844</v>
       </c>
@@ -2711,11 +2663,9 @@
         <v>315570.2697763158</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>1.844</v>
       </c>
@@ -2752,11 +2702,9 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>1.844</v>
       </c>
@@ -2793,11 +2741,9 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>1.844</v>
       </c>
@@ -2834,11 +2780,9 @@
         <v>313919.2697763158</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>1.844</v>
       </c>
@@ -2875,11 +2819,9 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>1.844</v>
       </c>
@@ -2916,11 +2858,9 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>1.844</v>
       </c>
@@ -2957,11 +2897,9 @@
         <v>306670.2697763158</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>1.844</v>
       </c>
@@ -2998,11 +2936,9 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>1.844</v>
       </c>
@@ -3039,11 +2975,9 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>1.844</v>
       </c>
@@ -3080,11 +3014,9 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>1.844</v>
       </c>
@@ -3121,11 +3053,9 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>1.844</v>
       </c>
@@ -3162,11 +3092,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>1.844</v>
       </c>
@@ -3203,11 +3131,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>1.844</v>
       </c>
@@ -3244,11 +3170,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>1.844</v>
       </c>
@@ -3285,11 +3209,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>1.844</v>
       </c>
@@ -3326,11 +3248,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>1.844</v>
       </c>
@@ -3367,11 +3287,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>1.844</v>
       </c>
@@ -6278,11 +6196,9 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>1.844</v>
       </c>
@@ -6319,11 +6235,9 @@
         <v>452335.3825763158</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>1.844</v>
       </c>
@@ -6360,11 +6274,9 @@
         <v>489776.3825763158</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>1.844</v>
       </c>
@@ -6401,11 +6313,9 @@
         <v>520220.3825763158</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>1.844</v>
       </c>
@@ -6442,11 +6352,9 @@
         <v>474929.3825763158</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>1.844</v>
       </c>
@@ -6483,11 +6391,9 @@
         <v>437821.3825763158</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>1.844</v>
       </c>
@@ -6524,11 +6430,9 @@
         <v>437821.3825763158</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>1.844</v>
       </c>
@@ -6565,11 +6469,9 @@
         <v>395503.3825763158</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>1.844</v>
       </c>
@@ -6606,11 +6508,9 @@
         <v>348620.3825763158</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>1.844</v>
       </c>
@@ -6647,11 +6547,9 @@
         <v>321789.3825763158</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>1.844</v>
       </c>
@@ -6688,11 +6586,9 @@
         <v>378521.3825763158</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>1.844</v>
       </c>
@@ -6729,11 +6625,9 @@
         <v>341804.3825763158</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>1.844</v>
       </c>
@@ -6770,11 +6664,9 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>1.844</v>
       </c>
@@ -6811,11 +6703,9 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>1.844</v>
       </c>
@@ -6852,11 +6742,9 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>1.844</v>
       </c>
@@ -6893,11 +6781,9 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>1.844</v>
       </c>
@@ -6934,11 +6820,9 @@
         <v>375901.3825763158</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>1.844</v>
       </c>
@@ -6975,11 +6859,9 @@
         <v>414015.3825763158</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>1.844</v>
       </c>
@@ -7016,11 +6898,9 @@
         <v>414015.3825763158</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>1.844</v>
       </c>
@@ -7057,11 +6937,9 @@
         <v>384543.6936763158</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>1.844</v>
       </c>
@@ -7098,11 +6976,9 @@
         <v>415644.7926763158</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>1.844</v>
       </c>
@@ -7139,11 +7015,9 @@
         <v>388340.7926763158</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>1.844</v>
       </c>
@@ -7180,11 +7054,9 @@
         <v>388340.7926763158</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>1.844</v>
       </c>
@@ -7221,11 +7093,9 @@
         <v>444476.7926763158</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>1.844</v>
       </c>
@@ -7262,11 +7132,9 @@
         <v>420634.7926763158</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>1.844</v>
       </c>
@@ -7303,11 +7171,9 @@
         <v>456430.7926763158</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>1.844</v>
       </c>
@@ -7344,11 +7210,9 @@
         <v>501936.7926763158</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>1.844</v>
       </c>
@@ -7385,11 +7249,9 @@
         <v>547624.7926763158</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>1.844</v>
       </c>
@@ -7426,11 +7288,9 @@
         <v>568699.7926763158</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>1.844</v>
       </c>
@@ -7467,11 +7327,9 @@
         <v>537612.7926763158</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>1.844</v>
       </c>
@@ -7508,11 +7366,9 @@
         <v>571754.7926763158</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>1.844</v>
       </c>
@@ -7549,11 +7405,9 @@
         <v>544624.7926763158</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>1.844</v>
       </c>
@@ -7590,11 +7444,9 @@
         <v>584936.7926763158</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>1.844</v>
       </c>
@@ -7631,11 +7483,9 @@
         <v>584936.7926763158</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>1.844</v>
       </c>
@@ -7672,11 +7522,9 @@
         <v>558456.7926763158</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>1.844</v>
       </c>
@@ -7713,11 +7561,9 @@
         <v>558456.7926763158</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>1.844</v>
       </c>
@@ -7754,11 +7600,9 @@
         <v>528453.7926763158</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>1.844</v>
       </c>
@@ -7795,11 +7639,9 @@
         <v>504632.7926763158</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>1.844</v>
       </c>
@@ -7836,11 +7678,9 @@
         <v>466894.7926763158</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>1.844</v>
       </c>
@@ -7877,11 +7717,9 @@
         <v>417109.7926763158</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>1.844</v>
       </c>
@@ -7918,11 +7756,9 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>1.844</v>
       </c>
@@ -7959,11 +7795,9 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>1.844</v>
       </c>
@@ -8000,11 +7834,9 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>1.844</v>
       </c>
@@ -8041,11 +7873,9 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>1.844</v>
       </c>
@@ -8082,11 +7912,9 @@
         <v>387843.7926763158</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>1.844</v>
       </c>
@@ -8123,11 +7951,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>1.844</v>
       </c>
@@ -8164,11 +7990,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>1.844</v>
       </c>
@@ -8205,11 +8029,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>1.844</v>
       </c>
@@ -8246,11 +8068,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>1.844</v>
       </c>
@@ -8287,11 +8107,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>1.844</v>
       </c>
@@ -8328,11 +8146,9 @@
         <v>416965.7926763158</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>1.844</v>
       </c>
@@ -8369,11 +8185,9 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>1.844</v>
       </c>
@@ -8410,11 +8224,9 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>1.844</v>
       </c>
@@ -8451,11 +8263,9 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>1.844</v>
       </c>
@@ -8492,11 +8302,9 @@
         <v>454866.7926763158</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>1.844</v>
       </c>
@@ -8533,11 +8341,9 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>1.844</v>
       </c>
@@ -8574,11 +8380,9 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>1.844</v>
       </c>
@@ -8615,11 +8419,9 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>1.844</v>
       </c>
@@ -8656,11 +8458,9 @@
         <v>475011.7926763158</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>1.844</v>
       </c>
@@ -8697,11 +8497,9 @@
         <v>507450.7926763158</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>1.844</v>
       </c>
@@ -8738,11 +8536,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>1.844</v>
       </c>
@@ -8779,11 +8575,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>1.844</v>
       </c>
@@ -8820,11 +8614,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>1.844</v>
       </c>
@@ -8861,11 +8653,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>1.844</v>
       </c>
@@ -8902,11 +8692,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>1.844</v>
       </c>
@@ -8943,11 +8731,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>1.844</v>
       </c>
@@ -8984,11 +8770,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>1.844</v>
       </c>
@@ -9025,11 +8809,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>1.844</v>
       </c>
@@ -9066,11 +8848,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>1.844</v>
       </c>
@@ -9107,11 +8887,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>1.844</v>
       </c>
@@ -9148,11 +8926,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>1.844</v>
       </c>
@@ -9189,11 +8965,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>1.844</v>
       </c>
@@ -9230,11 +9004,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>1.844</v>
       </c>
@@ -9271,11 +9043,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>1.844</v>
       </c>
@@ -9312,11 +9082,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>1.844</v>
       </c>
@@ -9353,11 +9121,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>1.844</v>
       </c>
@@ -9394,11 +9160,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>1.844</v>
       </c>
@@ -9435,11 +9199,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>1.844</v>
       </c>
@@ -9476,11 +9238,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>1.844</v>
       </c>
@@ -9517,11 +9277,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>1.844</v>
       </c>
@@ -9558,11 +9316,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>1.844</v>
       </c>
@@ -9599,11 +9355,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>1.844</v>
       </c>
@@ -9640,11 +9394,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>1.844</v>
       </c>
@@ -9681,11 +9433,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>1.844</v>
       </c>
@@ -10214,11 +9964,9 @@
         <v>419237.5347763157</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>1.844</v>
       </c>
@@ -10255,11 +10003,9 @@
         <v>381997.5347763157</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>1.844</v>
       </c>
@@ -10296,11 +10042,9 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>1.844</v>
       </c>
@@ -10337,11 +10081,9 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>1.844</v>
       </c>
@@ -10378,11 +10120,9 @@
         <v>337389.5347763157</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>1.844</v>
       </c>
@@ -10419,11 +10159,9 @@
         <v>287157.5347763157</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>1.844</v>
       </c>
@@ -10501,11 +10239,9 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>1.843</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>1.844</v>
       </c>
@@ -10542,11 +10278,9 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>1.844</v>
       </c>
@@ -10665,11 +10399,9 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
         <v>1.844</v>
       </c>
@@ -10706,11 +10438,9 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
         <v>1.844</v>
       </c>
@@ -10829,11 +10559,9 @@
         <v>333249.5347763157</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>1.844</v>
       </c>
@@ -10993,11 +10721,9 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
         <v>1.844</v>
       </c>
@@ -11116,11 +10842,9 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>1.844</v>
       </c>
@@ -11157,11 +10881,9 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>1.844</v>
       </c>
@@ -11198,11 +10920,9 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>1.844</v>
       </c>
@@ -11239,11 +10959,9 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>1.844</v>
       </c>
@@ -11280,11 +10998,9 @@
         <v>424026.5347763157</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>1.844</v>
       </c>
@@ -11321,11 +11037,9 @@
         <v>424026.5347763157</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>1.844</v>
       </c>
@@ -11362,11 +11076,9 @@
         <v>452881.5347763157</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>1.844</v>
       </c>
@@ -11403,11 +11115,9 @@
         <v>485905.5347763157</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>1.844</v>
       </c>
@@ -11444,11 +11154,9 @@
         <v>509702.5347763157</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>1.844</v>
       </c>
@@ -11485,11 +11193,9 @@
         <v>1661403.563190363</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>1.844</v>
       </c>
@@ -11760,11 +11466,9 @@
         <v>1190904.87670441</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>1.844</v>
       </c>
@@ -11801,11 +11505,9 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>1.844</v>
       </c>
@@ -11842,11 +11544,9 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>1.844</v>
       </c>
@@ -11883,11 +11583,9 @@
         <v>1154869.87670441</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>1.844</v>
       </c>
@@ -11924,11 +11622,9 @@
         <v>1131361.87670441</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>1.844</v>
       </c>
@@ -11965,11 +11661,9 @@
         <v>1156191.87670441</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1.859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>1.844</v>
       </c>
@@ -12006,11 +11700,9 @@
         <v>1199857.87670441</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>1.844</v>
       </c>
@@ -12047,11 +11739,9 @@
         <v>1170153.87670441</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>1.844</v>
       </c>
@@ -12088,11 +11778,9 @@
         <v>1140647.87670441</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>1.844</v>
       </c>
@@ -12129,11 +11817,9 @@
         <v>1095969.87670441</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>1.844</v>
       </c>
@@ -12326,11 +12012,9 @@
         <v>1079784.87670441</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>1.844</v>
       </c>
@@ -12367,11 +12051,9 @@
         <v>1121577.87670441</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>1.844</v>
       </c>
@@ -12486,11 +12168,9 @@
         <v>1102691.87670441</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>1.844</v>
       </c>
@@ -12527,11 +12207,9 @@
         <v>1102691.87670441</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>1.844</v>
       </c>
@@ -12607,11 +12285,9 @@
         <v>1022764.87670441</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1.859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>1.844</v>
       </c>
@@ -12648,11 +12324,9 @@
         <v>1057953.87670441</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>1.844</v>
       </c>
@@ -12689,11 +12363,9 @@
         <v>1085048.87670441</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>1.844</v>
       </c>
@@ -12730,11 +12402,9 @@
         <v>1061127.87670441</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>1.844</v>
       </c>
@@ -12771,11 +12441,9 @@
         <v>1100965.87670441</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>1.844</v>
       </c>
@@ -12812,11 +12480,9 @@
         <v>1145898.87670441</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
         <v>1.844</v>
       </c>
@@ -12931,11 +12597,9 @@
         <v>1134076.87670441</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
         <v>1.844</v>
       </c>
@@ -12972,11 +12636,9 @@
         <v>1160697.87670441</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1.865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>1.844</v>
       </c>
@@ -13013,11 +12675,9 @@
         <v>1160697.87670441</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1.867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>1.844</v>
       </c>
@@ -13327,11 +12987,9 @@
         <v>1168088.87670441</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
         <v>1.844</v>
       </c>
@@ -15162,7 +14820,7 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
@@ -15170,13 +14828,15 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
+        <v>1.079056399132321</v>
+      </c>
+      <c r="M365" t="n">
+        <v>1.002172732210755</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -15201,17 +14861,11 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -15240,17 +14894,11 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -15279,17 +14927,11 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -15318,17 +14960,11 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -15357,17 +14993,11 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -15396,17 +15026,11 @@
         <v>3563209.40679416</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15435,17 +15059,11 @@
         <v>4062830.50539416</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15477,14 +15095,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15516,14 +15128,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15555,14 +15161,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15594,14 +15194,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15633,14 +15227,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15672,14 +15260,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15711,14 +15293,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15747,17 +15323,11 @@
         <v>2564093.52509416</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15786,17 +15356,11 @@
         <v>2518306.52509416</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15825,17 +15389,11 @@
         <v>2412433.99789416</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15864,17 +15422,11 @@
         <v>2434101.99789416</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15903,17 +15455,11 @@
         <v>2402741.99789416</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15942,17 +15488,11 @@
         <v>2426731.99789416</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15984,14 +15524,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -16023,14 +15557,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -16059,17 +15587,11 @@
         <v>2367797.03409416</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -16101,14 +15623,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -16140,14 +15656,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -16179,14 +15689,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -16215,17 +15719,11 @@
         <v>2604003.02789416</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -16254,17 +15752,11 @@
         <v>2651132.02789416</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -16296,14 +15788,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -16335,14 +15821,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -16374,14 +15854,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -16413,14 +15887,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16452,14 +15920,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16491,14 +15953,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16530,14 +15986,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16569,14 +16019,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16608,14 +16052,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16647,14 +16085,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16686,14 +16118,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16725,14 +16151,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16764,14 +16184,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16803,14 +16217,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16842,14 +16250,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16881,14 +16283,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16920,14 +16316,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16959,14 +16349,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16998,14 +16382,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -17037,14 +16415,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -17076,14 +16448,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -17115,14 +16481,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -17154,14 +16514,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -17193,14 +16547,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -17232,14 +16580,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -17271,14 +16613,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -17310,14 +16646,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17349,14 +16679,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17388,14 +16712,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17427,14 +16745,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17466,14 +16778,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17505,14 +16811,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17544,14 +16844,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17583,14 +16877,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17622,14 +16910,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17661,14 +16943,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17700,14 +16976,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17739,14 +17009,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17778,14 +17042,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17817,14 +17075,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17856,14 +17108,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17895,14 +17141,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17934,14 +17174,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17973,14 +17207,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -18012,14 +17240,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -18051,14 +17273,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -18090,14 +17306,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -18129,14 +17339,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -18168,14 +17372,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -18207,14 +17405,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -18246,14 +17438,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18285,14 +17471,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18324,14 +17504,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18363,14 +17537,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18402,14 +17570,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18441,14 +17603,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18480,14 +17636,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18519,14 +17669,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18558,14 +17702,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18597,14 +17735,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18636,14 +17768,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18675,14 +17801,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18714,14 +17834,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18753,14 +17867,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18792,14 +17900,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18831,14 +17933,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18870,14 +17966,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18909,14 +17999,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18948,14 +18032,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18987,14 +18065,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -19026,14 +18098,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -19065,14 +18131,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -19104,14 +18164,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -19143,14 +18197,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -19182,14 +18230,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -19221,14 +18263,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -19260,14 +18296,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -19299,14 +18329,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -19338,14 +18362,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -19377,14 +18395,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -19416,14 +18428,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19455,14 +18461,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19494,14 +18494,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19530,23 +18524,15 @@
         <v>3065906.714366281</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>1.844</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
-        <v>1.089360086767896</v>
-      </c>
-      <c r="M477" t="n">
-        <v>1.002172732210755</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -19571,7 +18557,7 @@
         <v>3108373.714366281</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19604,7 +18590,7 @@
         <v>3146852.314066282</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19637,7 +18623,7 @@
         <v>3105530.314066282</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19670,7 +18656,7 @@
         <v>3049975.917066282</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19703,7 +18689,7 @@
         <v>3084189.917066282</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19736,7 +18722,7 @@
         <v>2997325.454366282</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19769,7 +18755,7 @@
         <v>2948503.141266282</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19802,7 +18788,7 @@
         <v>3117869.924866282</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19835,7 +18821,7 @@
         <v>3015008.618866282</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -23465,7 +22451,7 @@
         <v>4477595.757832501</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23498,7 +22484,7 @@
         <v>4452053.757832501</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23564,7 +22550,7 @@
         <v>4448961.757832501</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23597,7 +22583,7 @@
         <v>4475802.757832501</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23630,7 +22616,7 @@
         <v>4448168.757832501</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23663,7 +22649,7 @@
         <v>4479141.757832501</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23696,7 +22682,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23729,7 +22715,7 @@
         <v>4518047.757832501</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23795,7 +22781,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23828,7 +22814,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23861,7 +22847,7 @@
         <v>4404762.757832501</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23894,7 +22880,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23927,7 +22913,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24455,7 +23441,7 @@
         <v>4511070.037332501</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24554,7 +23540,7 @@
         <v>4563243.760632501</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24587,7 +23573,7 @@
         <v>4359395.397932501</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24620,7 +23606,7 @@
         <v>4403035.397932501</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24686,7 +23672,7 @@
         <v>4441243.397932501</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24719,7 +23705,7 @@
         <v>4393447.397932501</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24752,7 +23738,7 @@
         <v>4351975.397932501</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24785,7 +23771,7 @@
         <v>4351975.397932501</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24818,7 +23804,7 @@
         <v>4313323.397932501</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24851,7 +23837,7 @@
         <v>4313323.397932501</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24884,7 +23870,7 @@
         <v>4266750.397932501</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24917,7 +23903,7 @@
         <v>4214844.397932501</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24950,7 +23936,7 @@
         <v>4246993.397932501</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24983,7 +23969,7 @@
         <v>4271833.397932501</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25016,7 +24002,7 @@
         <v>4226957.397932501</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -25049,7 +24035,7 @@
         <v>4249387.116495375</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -25676,7 +24662,7 @@
         <v>4016811.478364437</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25775,7 +24761,7 @@
         <v>4000997.478364437</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25808,7 +24794,7 @@
         <v>3967382.478364437</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25841,7 +24827,7 @@
         <v>3923657.478364437</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26105,7 +25091,7 @@
         <v>3662980.260264437</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26138,7 +25124,7 @@
         <v>3662980.260264437</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26171,7 +25157,7 @@
         <v>3619058.260264437</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26204,7 +25190,7 @@
         <v>3530730.601164437</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26237,7 +25223,7 @@
         <v>3310124.104864437</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26270,7 +25256,7 @@
         <v>3239358.360764437</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26303,7 +25289,7 @@
         <v>3122973.574764438</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26336,7 +25322,7 @@
         <v>3072022.574764438</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26369,7 +25355,7 @@
         <v>3043998.574764438</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26402,7 +25388,7 @@
         <v>3000864.574764438</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -28580,7 +27566,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28613,7 +27599,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28646,7 +27632,7 @@
         <v>4246655.111116963</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28679,7 +27665,7 @@
         <v>4201574.000816963</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28712,7 +27698,7 @@
         <v>4228042.000816963</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28745,7 +27731,7 @@
         <v>4200060.260716963</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28778,7 +27764,7 @@
         <v>4160365.725816963</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28811,7 +27797,7 @@
         <v>4118502.725816963</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28844,7 +27830,7 @@
         <v>4071122.725816963</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28877,7 +27863,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28910,7 +27896,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28943,7 +27929,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28976,7 +27962,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -29009,7 +27995,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29042,7 +28028,7 @@
         <v>3951687.392916963</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -29075,7 +28061,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29108,7 +28094,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29141,7 +28127,7 @@
         <v>3965096.392916963</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29174,7 +28160,7 @@
         <v>3944288.392916963</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29207,7 +28193,7 @@
         <v>3997046.392916963</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29240,7 +28226,7 @@
         <v>4015042.392916963</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29273,7 +28259,7 @@
         <v>3983320.392916963</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29306,7 +28292,7 @@
         <v>4005892.392916963</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29339,7 +28325,7 @@
         <v>4044321.392916963</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29372,7 +28358,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29405,7 +28391,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29438,7 +28424,7 @@
         <v>4045663.392916963</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29471,7 +28457,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29504,7 +28490,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29537,7 +28523,7 @@
         <v>4035622.392916963</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -30131,7 +29117,7 @@
         <v>4097492.017916963</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30164,7 +29150,7 @@
         <v>4062570.017916963</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30197,7 +29183,7 @@
         <v>4092254.017916963</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30230,7 +29216,7 @@
         <v>4153983.513616963</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30263,7 +29249,7 @@
         <v>4183184.513616963</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30692,7 +29678,7 @@
         <v>3607028.326616963</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30725,7 +29711,7 @@
         <v>3607028.326616963</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30758,7 +29744,7 @@
         <v>3393992.924316963</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -41285,14 +40271,10 @@
         <v>-551625.5307154175</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1136" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="J1136" t="n">
-        <v>1.896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1136" t="inlineStr"/>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
@@ -41322,19 +40304,11 @@
         <v>-599037.5307154175</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1137" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="J1137" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1137" t="inlineStr"/>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -41363,19 +40337,11 @@
         <v>-649981.5307154175</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1138" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J1138" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1138" t="inlineStr"/>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -41404,14 +40370,10 @@
         <v>-680873.5307154175</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1139" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J1139" t="n">
-        <v>1.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1139" t="inlineStr"/>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
@@ -41441,19 +40403,11 @@
         <v>-680873.5307154175</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1140" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="J1140" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1140" t="inlineStr"/>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -41482,19 +40436,11 @@
         <v>-710145.5307154175</v>
       </c>
       <c r="H1141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1141" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="J1141" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1141" t="inlineStr"/>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -41523,19 +40469,11 @@
         <v>-769376.4384154174</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1142" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J1142" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1142" t="inlineStr"/>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -41564,19 +40502,11 @@
         <v>-733603.5045154174</v>
       </c>
       <c r="H1143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1143" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J1143" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1143" t="inlineStr"/>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -41605,19 +40535,11 @@
         <v>-772284.5045154174</v>
       </c>
       <c r="H1144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1144" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="J1144" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1144" t="inlineStr"/>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -41646,19 +40568,11 @@
         <v>-812909.5045154174</v>
       </c>
       <c r="H1145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1145" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J1145" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1145" t="inlineStr"/>
+      <c r="J1145" t="inlineStr"/>
+      <c r="K1145" t="inlineStr"/>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -41687,19 +40601,11 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="J1146" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
+      <c r="J1146" t="inlineStr"/>
+      <c r="K1146" t="inlineStr"/>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -41734,13 +40640,9 @@
         <v>1.856</v>
       </c>
       <c r="J1147" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K1147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.856</v>
+      </c>
+      <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -41775,11 +40677,11 @@
         <v>1.856</v>
       </c>
       <c r="J1148" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1148" t="n">
@@ -41816,7 +40718,7 @@
         <v>1.855</v>
       </c>
       <c r="J1149" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -41857,7 +40759,7 @@
         <v>1.855</v>
       </c>
       <c r="J1150" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -41898,7 +40800,7 @@
         <v>1.855</v>
       </c>
       <c r="J1151" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -41939,7 +40841,7 @@
         <v>1.855</v>
       </c>
       <c r="J1152" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -41980,7 +40882,7 @@
         <v>1.855</v>
       </c>
       <c r="J1153" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -42021,7 +40923,7 @@
         <v>1.854</v>
       </c>
       <c r="J1154" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -42062,7 +40964,7 @@
         <v>1.856</v>
       </c>
       <c r="J1155" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -42103,7 +41005,7 @@
         <v>1.856</v>
       </c>
       <c r="J1156" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -42144,7 +41046,7 @@
         <v>1.857</v>
       </c>
       <c r="J1157" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -42185,7 +41087,7 @@
         <v>1.871</v>
       </c>
       <c r="J1158" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -42226,7 +41128,7 @@
         <v>1.872</v>
       </c>
       <c r="J1159" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -42267,7 +41169,7 @@
         <v>1.871</v>
       </c>
       <c r="J1160" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -42308,7 +41210,7 @@
         <v>1.858</v>
       </c>
       <c r="J1161" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -42349,7 +41251,7 @@
         <v>1.859</v>
       </c>
       <c r="J1162" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -42390,7 +41292,7 @@
         <v>1.861</v>
       </c>
       <c r="J1163" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -42431,7 +41333,7 @@
         <v>1.859</v>
       </c>
       <c r="J1164" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -42472,7 +41374,7 @@
         <v>1.859</v>
       </c>
       <c r="J1165" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -42513,7 +41415,7 @@
         <v>1.859</v>
       </c>
       <c r="J1166" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -42554,7 +41456,7 @@
         <v>1.859</v>
       </c>
       <c r="J1167" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -42595,7 +41497,7 @@
         <v>1.859</v>
       </c>
       <c r="J1168" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -42636,7 +41538,7 @@
         <v>1.858</v>
       </c>
       <c r="J1169" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -42677,7 +41579,7 @@
         <v>1.859</v>
       </c>
       <c r="J1170" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -42718,7 +41620,7 @@
         <v>1.861</v>
       </c>
       <c r="J1171" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -42759,7 +41661,7 @@
         <v>1.862</v>
       </c>
       <c r="J1172" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -42794,13 +41696,11 @@
         <v>-693538.9415154173</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1173" t="n">
-        <v>1.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -42839,7 +41739,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -42878,7 +41778,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -42917,7 +41817,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -42952,13 +41852,11 @@
         <v>-767123.2109154173</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>1.866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -42993,13 +41891,11 @@
         <v>-736493.2109154173</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>1.868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -43034,13 +41930,11 @@
         <v>-685638.2109154173</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>1.869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -43075,13 +41969,11 @@
         <v>-685638.2109154173</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>1.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -43116,13 +42008,11 @@
         <v>-714165.2109154173</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>1.873</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -43161,7 +42051,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -43200,7 +42090,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -43239,7 +42129,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -43278,7 +42168,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -43317,7 +42207,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -43352,13 +42242,11 @@
         <v>-813775.2109154173</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1187" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -43393,13 +42281,11 @@
         <v>-813475.2109154173</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>1.861</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -43434,13 +42320,11 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>1.862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -43475,13 +42359,11 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1190" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -43522,7 +42404,7 @@
         <v>1.863</v>
       </c>
       <c r="J1191" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -43557,13 +42439,11 @@
         <v>-771621.2109154173</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>1.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -43604,7 +42484,7 @@
         <v>1.863</v>
       </c>
       <c r="J1193" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -43645,7 +42525,7 @@
         <v>1.865</v>
       </c>
       <c r="J1194" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -43684,7 +42564,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -43723,7 +42603,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -43762,7 +42642,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -43801,7 +42681,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -43840,7 +42720,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -43879,7 +42759,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -43918,7 +42798,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -43957,7 +42837,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -43996,7 +42876,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -44035,7 +42915,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -44074,7 +42954,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -44113,7 +42993,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -44152,7 +43032,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -44187,13 +43067,11 @@
         <v>-774105.6777154173</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -44228,13 +43106,11 @@
         <v>-809501.6777154173</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>1.882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -44269,13 +43145,11 @@
         <v>-785919.6777154173</v>
       </c>
       <c r="H1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -44310,13 +43184,11 @@
         <v>-743077.6777154173</v>
       </c>
       <c r="H1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1211" t="n">
-        <v>1.883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -44355,7 +43227,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -44394,7 +43266,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -44433,7 +43305,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -44472,7 +43344,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -44511,7 +43383,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -44550,7 +43422,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -44589,7 +43461,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -44624,13 +43496,11 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>1.887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -44669,7 +43539,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -44708,7 +43578,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -44747,7 +43617,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -44786,7 +43656,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -44825,7 +43695,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -44864,7 +43734,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -44899,11 +43769,13 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J1226" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -44942,7 +43814,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -44981,7 +43853,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -45020,7 +43892,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -45055,13 +43927,11 @@
         <v>-793151.6777154173</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -45096,13 +43966,11 @@
         <v>-836870.6777154173</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>1.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -45137,13 +44005,11 @@
         <v>-886576.6777154173</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>1.884</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -45184,7 +44050,7 @@
         <v>1.882</v>
       </c>
       <c r="J1233" t="n">
-        <v>1.893</v>
+        <v>1.856</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -45197,6 +44063,6 @@
       <c r="M1233" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest MBL.xlsx
+++ b/BackTest/2020-01-26 BackTest MBL.xlsx
@@ -1399,9 +1399,11 @@
         <v>238452.0565763158</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J26" t="n">
         <v>1.844</v>
       </c>
@@ -1438,9 +1440,11 @@
         <v>283051.0565763158</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J27" t="n">
         <v>1.844</v>
       </c>
@@ -1477,9 +1481,11 @@
         <v>244211.0565763158</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J28" t="n">
         <v>1.844</v>
       </c>
@@ -1516,9 +1522,11 @@
         <v>209706.0565763158</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J29" t="n">
         <v>1.844</v>
       </c>
@@ -1555,9 +1563,11 @@
         <v>232669.0565763158</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J30" t="n">
         <v>1.844</v>
       </c>
@@ -1594,9 +1604,11 @@
         <v>207297.0565763158</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J31" t="n">
         <v>1.844</v>
       </c>
@@ -1633,9 +1645,11 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J32" t="n">
         <v>1.844</v>
       </c>
@@ -1672,9 +1686,11 @@
         <v>247001.0565763158</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J33" t="n">
         <v>1.844</v>
       </c>
@@ -1711,9 +1727,11 @@
         <v>215932.0565763158</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J34" t="n">
         <v>1.844</v>
       </c>
@@ -1750,9 +1768,11 @@
         <v>161308.2697763158</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J35" t="n">
         <v>1.844</v>
       </c>
@@ -1789,9 +1809,11 @@
         <v>192721.2697763158</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J36" t="n">
         <v>1.844</v>
       </c>
@@ -1828,9 +1850,11 @@
         <v>158614.2697763158</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J37" t="n">
         <v>1.844</v>
       </c>
@@ -1867,9 +1891,11 @@
         <v>132251.2697763158</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J38" t="n">
         <v>1.844</v>
       </c>
@@ -1906,9 +1932,11 @@
         <v>168172.2697763158</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J39" t="n">
         <v>1.844</v>
       </c>
@@ -1986,9 +2014,11 @@
         <v>126302.2697763158</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.843</v>
+      </c>
       <c r="J41" t="n">
         <v>1.844</v>
       </c>
@@ -2312,9 +2342,11 @@
         <v>213326.2697763158</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J49" t="n">
         <v>1.844</v>
       </c>
@@ -2351,9 +2383,11 @@
         <v>235461.2697763158</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.844</v>
+      </c>
       <c r="J50" t="n">
         <v>1.844</v>
       </c>
@@ -2390,9 +2424,11 @@
         <v>279823.2697763158</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J51" t="n">
         <v>1.844</v>
       </c>
@@ -2429,9 +2465,11 @@
         <v>241143.2697763158</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J52" t="n">
         <v>1.844</v>
       </c>
@@ -2468,9 +2506,11 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J53" t="n">
         <v>1.844</v>
       </c>
@@ -2507,9 +2547,11 @@
         <v>209955.2697763158</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J54" t="n">
         <v>1.844</v>
       </c>
@@ -2546,9 +2588,11 @@
         <v>185161.2697763158</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J55" t="n">
         <v>1.844</v>
       </c>
@@ -2585,9 +2629,11 @@
         <v>233452.2697763158</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.845</v>
+      </c>
       <c r="J56" t="n">
         <v>1.844</v>
       </c>
@@ -2624,9 +2670,11 @@
         <v>272369.2697763158</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J57" t="n">
         <v>1.844</v>
       </c>
@@ -2663,9 +2711,11 @@
         <v>315570.2697763158</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J58" t="n">
         <v>1.844</v>
       </c>
@@ -2702,9 +2752,11 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J59" t="n">
         <v>1.844</v>
       </c>
@@ -2741,9 +2793,11 @@
         <v>290284.2697763158</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J60" t="n">
         <v>1.844</v>
       </c>
@@ -2780,9 +2834,11 @@
         <v>313919.2697763158</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J61" t="n">
         <v>1.844</v>
       </c>
@@ -2819,9 +2875,11 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J62" t="n">
         <v>1.844</v>
       </c>
@@ -2858,9 +2916,11 @@
         <v>353601.2697763158</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J63" t="n">
         <v>1.844</v>
       </c>
@@ -2897,9 +2957,11 @@
         <v>306670.2697763158</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J64" t="n">
         <v>1.844</v>
       </c>
@@ -2936,9 +2998,11 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.847</v>
+      </c>
       <c r="J65" t="n">
         <v>1.844</v>
       </c>
@@ -2975,9 +3039,11 @@
         <v>331610.2697763158</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J66" t="n">
         <v>1.844</v>
       </c>
@@ -3014,9 +3080,11 @@
         <v>304500.2697763158</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.849</v>
+      </c>
       <c r="J67" t="n">
         <v>1.844</v>
       </c>
@@ -3092,9 +3160,11 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.848</v>
+      </c>
       <c r="J69" t="n">
         <v>1.844</v>
       </c>
@@ -3326,11 +3396,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>1.844</v>
       </c>
@@ -3367,11 +3435,9 @@
         <v>333171.2697763158</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>1.844</v>
       </c>
@@ -3408,11 +3474,9 @@
         <v>358137.2697763158</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>1.844</v>
       </c>
@@ -3449,11 +3513,9 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>1.844</v>
       </c>
@@ -3490,11 +3552,9 @@
         <v>303813.2701763158</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>1.844</v>
       </c>
@@ -3572,11 +3632,9 @@
         <v>289490.2701763158</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>1.844</v>
       </c>
@@ -5007,11 +5065,9 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>1.844</v>
       </c>
@@ -5048,11 +5104,9 @@
         <v>315286.3825763158</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>1.844</v>
       </c>
@@ -5089,11 +5143,9 @@
         <v>271176.3825763158</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>1.844</v>
       </c>
@@ -5130,11 +5182,9 @@
         <v>226311.3825763158</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>1.844</v>
       </c>
@@ -6073,11 +6123,9 @@
         <v>382404.3825763158</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>1.844</v>
       </c>
@@ -6114,11 +6162,9 @@
         <v>359918.3825763158</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>1.844</v>
       </c>
@@ -6155,11 +6201,9 @@
         <v>408638.3825763158</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>1.844</v>
       </c>
@@ -9472,11 +9516,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>1.844</v>
       </c>
@@ -9513,11 +9555,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>1.844</v>
       </c>
@@ -9554,11 +9594,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>1.844</v>
       </c>
@@ -9595,11 +9633,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>1.844</v>
       </c>
@@ -9636,11 +9672,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>1.844</v>
       </c>
@@ -9677,11 +9711,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>1.844</v>
       </c>
@@ -9718,11 +9750,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>1.844</v>
       </c>
@@ -9759,11 +9789,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>1.844</v>
       </c>
@@ -9800,11 +9828,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>1.844</v>
       </c>
@@ -9841,11 +9867,9 @@
         <v>469004.7926763158</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>1.844</v>
       </c>
@@ -9882,11 +9906,9 @@
         <v>411454.4357763157</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1.849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>1.844</v>
       </c>
@@ -9923,11 +9945,9 @@
         <v>448741.5347763157</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>1.844</v>
       </c>
@@ -10198,11 +10218,9 @@
         <v>265180.5347763157</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>1.844</v>
       </c>
@@ -10317,11 +10335,9 @@
         <v>312832.5347763157</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
         <v>1.844</v>
       </c>
@@ -10358,11 +10374,9 @@
         <v>364112.5347763157</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
         <v>1.844</v>
       </c>
@@ -10477,11 +10491,9 @@
         <v>327178.5347763157</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>1.844</v>
       </c>
@@ -10518,11 +10530,9 @@
         <v>362871.5347763157</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
         <v>1.844</v>
       </c>
@@ -10598,11 +10608,9 @@
         <v>366498.5347763157</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1.844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>1.844</v>
       </c>
@@ -10639,11 +10647,9 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>1.844</v>
       </c>
@@ -10680,11 +10686,9 @@
         <v>395135.5347763157</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1.847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>1.844</v>
       </c>
@@ -10760,11 +10764,9 @@
         <v>359994.5347763157</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
         <v>1.844</v>
       </c>
@@ -10801,11 +10803,9 @@
         <v>387506.5347763157</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1.845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>1.844</v>
       </c>
@@ -14820,254 +14820,296 @@
         <v>3413092.45280441</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>1.844</v>
       </c>
       <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F366" t="n">
+        <v>52405.6109</v>
+      </c>
+      <c r="G366" t="n">
+        <v>3413092.45280441</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F367" t="n">
+        <v>47040</v>
+      </c>
+      <c r="G367" t="n">
+        <v>3413092.45280441</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F368" t="n">
+        <v>36525</v>
+      </c>
+      <c r="G368" t="n">
+        <v>3413092.45280441</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F369" t="n">
+        <v>34760</v>
+      </c>
+      <c r="G369" t="n">
+        <v>3413092.45280441</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F370" t="n">
+        <v>25073</v>
+      </c>
+      <c r="G370" t="n">
+        <v>3413092.45280441</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="F371" t="n">
+        <v>150116.95398975</v>
+      </c>
+      <c r="G371" t="n">
+        <v>3563209.40679416</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F372" t="n">
+        <v>499621.0986</v>
+      </c>
+      <c r="G372" t="n">
+        <v>4062830.50539416</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="K372" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L365" t="n">
-        <v>1.079056399132321</v>
-      </c>
-      <c r="M365" t="n">
+      <c r="L372" t="n">
+        <v>1.113763557483731</v>
+      </c>
+      <c r="M372" t="n">
         <v>1.002172732210755</v>
       </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2</v>
-      </c>
-      <c r="C366" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="D366" t="n">
-        <v>2</v>
-      </c>
-      <c r="E366" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F366" t="n">
-        <v>52405.6109</v>
-      </c>
-      <c r="G366" t="n">
-        <v>3413092.45280441</v>
-      </c>
-      <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="C367" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="D367" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="E367" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F367" t="n">
-        <v>47040</v>
-      </c>
-      <c r="G367" t="n">
-        <v>3413092.45280441</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="C368" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="D368" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="E368" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F368" t="n">
-        <v>36525</v>
-      </c>
-      <c r="G368" t="n">
-        <v>3413092.45280441</v>
-      </c>
-      <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="C369" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="D369" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="E369" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F369" t="n">
-        <v>34760</v>
-      </c>
-      <c r="G369" t="n">
-        <v>3413092.45280441</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="C370" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="D370" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="E370" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F370" t="n">
-        <v>25073</v>
-      </c>
-      <c r="G370" t="n">
-        <v>3413092.45280441</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="C371" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="D371" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="E371" t="n">
-        <v>1.999</v>
-      </c>
-      <c r="F371" t="n">
-        <v>150116.95398975</v>
-      </c>
-      <c r="G371" t="n">
-        <v>3563209.40679416</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="C372" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="D372" t="n">
-        <v>2.063</v>
-      </c>
-      <c r="E372" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F372" t="n">
-        <v>499621.0986</v>
-      </c>
-      <c r="G372" t="n">
-        <v>4062830.50539416</v>
-      </c>
-      <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -15092,7 +15134,7 @@
         <v>3364936.31839416</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -15125,7 +15167,7 @@
         <v>3656335.26939416</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -15158,7 +15200,7 @@
         <v>2984946.01629416</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -15191,7 +15233,7 @@
         <v>2672736.21089416</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15224,7 +15266,7 @@
         <v>2706356.21089416</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15323,7 +15365,7 @@
         <v>2564093.52509416</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15356,7 +15398,7 @@
         <v>2518306.52509416</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15389,7 +15431,7 @@
         <v>2412433.99789416</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15422,7 +15464,7 @@
         <v>2434101.99789416</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15455,7 +15497,7 @@
         <v>2402741.99789416</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15488,7 +15530,7 @@
         <v>2426731.99789416</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15587,7 +15629,7 @@
         <v>2367797.03409416</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15719,7 +15761,7 @@
         <v>2604003.02789416</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15752,7 +15794,7 @@
         <v>2651132.02789416</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -18128,7 +18170,7 @@
         <v>3096728.231766281</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18260,7 +18302,7 @@
         <v>3091091.231766281</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18293,7 +18335,7 @@
         <v>3059625.218266281</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -22781,7 +22823,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22814,7 +22856,7 @@
         <v>4431975.757832501</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22847,7 +22889,7 @@
         <v>4404762.757832501</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22880,7 +22922,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22913,7 +22955,7 @@
         <v>4430401.757832501</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22946,7 +22988,7 @@
         <v>4476198.757832501</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22979,7 +23021,7 @@
         <v>4425396.757832501</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23012,7 +23054,7 @@
         <v>4380478.757832501</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23045,7 +23087,7 @@
         <v>4437431.757832501</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -27566,7 +27608,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -27599,7 +27641,7 @@
         <v>4203031.111116963</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27632,7 +27674,7 @@
         <v>4246655.111116963</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27665,7 +27707,7 @@
         <v>4201574.000816963</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27698,7 +27740,7 @@
         <v>4228042.000816963</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27731,7 +27773,7 @@
         <v>4200060.260716963</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27764,7 +27806,7 @@
         <v>4160365.725816963</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27797,7 +27839,7 @@
         <v>4118502.725816963</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27830,7 +27872,7 @@
         <v>4071122.725816963</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27863,7 +27905,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27896,7 +27938,7 @@
         <v>4038719.725816963</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27929,7 +27971,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27962,7 +28004,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27995,7 +28037,7 @@
         <v>3918416.392916963</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28028,7 +28070,7 @@
         <v>3951687.392916963</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28061,7 +28103,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28094,7 +28136,7 @@
         <v>3923449.392916963</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28127,7 +28169,7 @@
         <v>3965096.392916963</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -28160,7 +28202,7 @@
         <v>3944288.392916963</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28193,7 +28235,7 @@
         <v>3997046.392916963</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28226,7 +28268,7 @@
         <v>4015042.392916963</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28259,7 +28301,7 @@
         <v>3983320.392916963</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28292,7 +28334,7 @@
         <v>4005892.392916963</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28325,7 +28367,7 @@
         <v>4044321.392916963</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28358,7 +28400,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28391,7 +28433,7 @@
         <v>4021861.392916963</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28424,7 +28466,7 @@
         <v>4045663.392916963</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28457,7 +28499,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28490,7 +28532,7 @@
         <v>4071757.392916963</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28523,7 +28565,7 @@
         <v>4035622.392916963</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -40634,14 +40676,10 @@
         <v>-822874.6607154174</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="J1147" t="n">
-        <v>1.856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr"/>
       <c r="L1147" t="n">
         <v>1</v>
@@ -40671,1906 +40709,1630 @@
         <v>-944005.1470154173</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1148" t="inlineStr"/>
+      <c r="J1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="n">
         <v>1.856</v>
       </c>
-      <c r="J1148" t="n">
+      <c r="C1149" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D1149" t="n">
         <v>1.856</v>
       </c>
-      <c r="K1148" t="inlineStr">
+      <c r="E1149" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>335520.6437</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>-944005.1470154173</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1149" t="inlineStr"/>
+      <c r="J1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr"/>
+      <c r="L1149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>46348.6499</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>-944005.1470154173</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1150" t="inlineStr"/>
+      <c r="J1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>32626</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>-944005.1470154173</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1151" t="inlineStr"/>
+      <c r="J1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>18082</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>-944005.1470154173</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1152" t="inlineStr"/>
+      <c r="J1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>1.854</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>25849.6209</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>-969854.7679154173</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
+      <c r="J1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>23615.029</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>-946239.7389154173</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1154" t="inlineStr"/>
+      <c r="J1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr"/>
+      <c r="L1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>3785.6209</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>-946239.7389154173</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
+      <c r="J1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr"/>
+      <c r="L1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>-945939.7389154173</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1156" t="inlineStr"/>
+      <c r="J1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr"/>
+      <c r="L1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>33645</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>-912294.7389154173</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
+      <c r="J1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>86513</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>-825781.7389154173</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
+      <c r="J1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>40888</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>-866669.7389154173</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
+      <c r="J1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr"/>
+      <c r="L1159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>41268.2026</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>-907937.9415154173</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
+      <c r="J1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr"/>
+      <c r="L1160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>32114.7974</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>-875823.1441154173</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
+      <c r="J1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr"/>
+      <c r="L1161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>79257.20329999999</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>-796565.9408154173</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
+      <c r="J1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr"/>
+      <c r="L1162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>51172.0007</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
+      <c r="J1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr"/>
+      <c r="L1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>34704</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1164" t="inlineStr"/>
+      <c r="J1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>39171</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1165" t="inlineStr"/>
+      <c r="J1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr"/>
+      <c r="L1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>24095</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1166" t="inlineStr"/>
+      <c r="J1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr"/>
+      <c r="L1166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>50739</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1167" t="inlineStr"/>
+      <c r="J1167" t="inlineStr"/>
+      <c r="K1167" t="inlineStr"/>
+      <c r="L1167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>-848037.9415154173</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1168" t="inlineStr"/>
+      <c r="J1168" t="inlineStr"/>
+      <c r="K1168" t="inlineStr"/>
+      <c r="L1168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>-847737.9415154173</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1169" t="inlineStr"/>
+      <c r="J1169" t="inlineStr"/>
+      <c r="K1169" t="inlineStr"/>
+      <c r="L1169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>33734</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>-814003.9415154173</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1170" t="inlineStr"/>
+      <c r="J1170" t="inlineStr"/>
+      <c r="K1170" t="inlineStr"/>
+      <c r="L1170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>39084</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>-774919.9415154173</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1171" t="inlineStr"/>
+      <c r="J1171" t="inlineStr"/>
+      <c r="K1171" t="inlineStr"/>
+      <c r="L1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>28988</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>-745931.9415154173</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1172" t="inlineStr"/>
+      <c r="J1172" t="inlineStr"/>
+      <c r="K1172" t="inlineStr"/>
+      <c r="L1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>52393</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>-693538.9415154173</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1173" t="inlineStr"/>
+      <c r="J1173" t="inlineStr"/>
+      <c r="K1173" t="inlineStr"/>
+      <c r="L1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>29244</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>-722782.9415154173</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1174" t="inlineStr"/>
+      <c r="J1174" t="inlineStr"/>
+      <c r="K1174" t="inlineStr"/>
+      <c r="L1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>90359.2694</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>-813142.2109154173</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1175" t="inlineStr"/>
+      <c r="J1175" t="inlineStr"/>
+      <c r="K1175" t="inlineStr"/>
+      <c r="L1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>22608</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>-790534.2109154173</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1176" t="inlineStr"/>
+      <c r="J1176" t="inlineStr"/>
+      <c r="K1176" t="inlineStr"/>
+      <c r="L1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>23411</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>-767123.2109154173</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
+      <c r="J1177" t="inlineStr"/>
+      <c r="K1177" t="inlineStr"/>
+      <c r="L1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>30630</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>-736493.2109154173</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
+      <c r="J1178" t="inlineStr"/>
+      <c r="K1178" t="inlineStr"/>
+      <c r="L1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>50855</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>-685638.2109154173</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
+      <c r="J1179" t="inlineStr"/>
+      <c r="K1179" t="inlineStr"/>
+      <c r="L1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>25907</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>-685638.2109154173</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
+      <c r="J1180" t="inlineStr"/>
+      <c r="K1180" t="inlineStr"/>
+      <c r="L1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>28527</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>-714165.2109154173</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
+      <c r="J1181" t="inlineStr"/>
+      <c r="K1181" t="inlineStr"/>
+      <c r="L1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>44715</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>-758880.2109154173</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
+      <c r="J1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr"/>
+      <c r="L1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>54595</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>-813475.2109154173</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr"/>
+      <c r="J1183" t="inlineStr"/>
+      <c r="K1183" t="inlineStr"/>
+      <c r="L1183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>158657.2136</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>-813475.2109154173</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
+      <c r="J1184" t="inlineStr"/>
+      <c r="K1184" t="inlineStr"/>
+      <c r="L1184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>44265</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>-813475.2109154173</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
+      <c r="J1185" t="inlineStr"/>
+      <c r="K1185" t="inlineStr"/>
+      <c r="L1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>-813775.2109154173</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K1186" t="inlineStr"/>
+      <c r="L1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>-813775.2109154173</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>-813475.2109154173</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>41854</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>-771621.2109154173</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K1189" t="inlineStr"/>
+      <c r="L1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>23326</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>-771621.2109154173</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>47277</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>-771621.2109154173</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>18974</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>-771621.2109154173</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K1192" t="inlineStr"/>
+      <c r="L1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>45850</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>-725771.2109154173</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>44710</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>-681061.2109154173</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>36132.4668</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>-717193.6777154173</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K1195" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" s="1" t="n">
-        <v>1147</v>
-      </c>
-      <c r="B1149" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="C1149" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D1149" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E1149" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>335520.6437</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>-944005.1470154173</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1149" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J1149" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B1150" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C1150" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D1150" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E1150" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F1150" t="n">
-        <v>46348.6499</v>
-      </c>
-      <c r="G1150" t="n">
-        <v>-944005.1470154173</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1150" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J1150" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" s="1" t="n">
-        <v>1149</v>
-      </c>
-      <c r="B1151" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C1151" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D1151" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E1151" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F1151" t="n">
-        <v>32626</v>
-      </c>
-      <c r="G1151" t="n">
-        <v>-944005.1470154173</v>
-      </c>
-      <c r="H1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1151" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J1151" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" s="1" t="n">
-        <v>1150</v>
-      </c>
-      <c r="B1152" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C1152" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D1152" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E1152" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F1152" t="n">
-        <v>18082</v>
-      </c>
-      <c r="G1152" t="n">
-        <v>-944005.1470154173</v>
-      </c>
-      <c r="H1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1152" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J1152" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="1" t="n">
-        <v>1151</v>
-      </c>
-      <c r="B1153" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="C1153" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="D1153" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="E1153" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="F1153" t="n">
-        <v>25849.6209</v>
-      </c>
-      <c r="G1153" t="n">
-        <v>-969854.7679154173</v>
-      </c>
-      <c r="H1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="J1153" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="1" t="n">
-        <v>1152</v>
-      </c>
-      <c r="B1154" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="C1154" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D1154" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E1154" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F1154" t="n">
-        <v>23615.029</v>
-      </c>
-      <c r="G1154" t="n">
-        <v>-946239.7389154173</v>
-      </c>
-      <c r="H1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1154" t="n">
-        <v>1.854</v>
-      </c>
-      <c r="J1154" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="1" t="n">
-        <v>1153</v>
-      </c>
-      <c r="B1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="C1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="F1155" t="n">
-        <v>3785.6209</v>
-      </c>
-      <c r="G1155" t="n">
-        <v>-946239.7389154173</v>
-      </c>
-      <c r="H1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="J1155" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="1" t="n">
-        <v>1154</v>
-      </c>
-      <c r="B1156" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="C1156" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="D1156" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="E1156" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="F1156" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>-945939.7389154173</v>
-      </c>
-      <c r="H1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1156" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="J1156" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="1" t="n">
-        <v>1155</v>
-      </c>
-      <c r="B1157" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C1157" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D1157" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E1157" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F1157" t="n">
-        <v>33645</v>
-      </c>
-      <c r="G1157" t="n">
-        <v>-912294.7389154173</v>
-      </c>
-      <c r="H1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>1.857</v>
-      </c>
-      <c r="J1157" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="1" t="n">
-        <v>1156</v>
-      </c>
-      <c r="B1158" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C1158" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D1158" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="E1158" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="F1158" t="n">
-        <v>86513</v>
-      </c>
-      <c r="G1158" t="n">
-        <v>-825781.7389154173</v>
-      </c>
-      <c r="H1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="J1158" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" s="1" t="n">
-        <v>1157</v>
-      </c>
-      <c r="B1159" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C1159" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D1159" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E1159" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F1159" t="n">
-        <v>40888</v>
-      </c>
-      <c r="G1159" t="n">
-        <v>-866669.7389154173</v>
-      </c>
-      <c r="H1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="J1159" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" s="1" t="n">
-        <v>1158</v>
-      </c>
-      <c r="B1160" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C1160" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="D1160" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E1160" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F1160" t="n">
-        <v>41268.2026</v>
-      </c>
-      <c r="G1160" t="n">
-        <v>-907937.9415154173</v>
-      </c>
-      <c r="H1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="J1160" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" s="1" t="n">
-        <v>1159</v>
-      </c>
-      <c r="B1161" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="C1161" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1161" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1161" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F1161" t="n">
-        <v>32114.7974</v>
-      </c>
-      <c r="G1161" t="n">
-        <v>-875823.1441154173</v>
-      </c>
-      <c r="H1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="J1161" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" s="1" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B1162" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C1162" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D1162" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E1162" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F1162" t="n">
-        <v>79257.20329999999</v>
-      </c>
-      <c r="G1162" t="n">
-        <v>-796565.9408154173</v>
-      </c>
-      <c r="H1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1162" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" s="1" t="n">
-        <v>1161</v>
-      </c>
-      <c r="B1163" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1163" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1163" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1163" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1163" t="n">
-        <v>51172.0007</v>
-      </c>
-      <c r="G1163" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1163" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="J1163" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" s="1" t="n">
-        <v>1162</v>
-      </c>
-      <c r="B1164" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1164" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1164" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1164" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1164" t="n">
-        <v>34704</v>
-      </c>
-      <c r="G1164" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1164" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1164" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" s="1" t="n">
-        <v>1163</v>
-      </c>
-      <c r="B1165" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1165" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1165" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1165" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1165" t="n">
-        <v>39171</v>
-      </c>
-      <c r="G1165" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1165" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1165" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" s="1" t="n">
-        <v>1164</v>
-      </c>
-      <c r="B1166" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1166" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1166" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1166" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1166" t="n">
-        <v>24095</v>
-      </c>
-      <c r="G1166" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1166" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1166" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" s="1" t="n">
-        <v>1165</v>
-      </c>
-      <c r="B1167" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1167" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1167" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1167" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1167" t="n">
-        <v>50739</v>
-      </c>
-      <c r="G1167" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1167" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1167" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" s="1" t="n">
-        <v>1166</v>
-      </c>
-      <c r="B1168" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="C1168" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="D1168" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="E1168" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F1168" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1168" t="n">
-        <v>-848037.9415154173</v>
-      </c>
-      <c r="H1168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1168" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1168" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" s="1" t="n">
-        <v>1167</v>
-      </c>
-      <c r="B1169" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C1169" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D1169" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E1169" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F1169" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1169" t="n">
-        <v>-847737.9415154173</v>
-      </c>
-      <c r="H1169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1169" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="J1169" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" s="1" t="n">
-        <v>1168</v>
-      </c>
-      <c r="B1170" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C1170" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D1170" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="E1170" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F1170" t="n">
-        <v>33734</v>
-      </c>
-      <c r="G1170" t="n">
-        <v>-814003.9415154173</v>
-      </c>
-      <c r="H1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1170" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J1170" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" s="1" t="n">
-        <v>1169</v>
-      </c>
-      <c r="B1171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C1171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D1171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E1171" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F1171" t="n">
-        <v>39084</v>
-      </c>
-      <c r="G1171" t="n">
-        <v>-774919.9415154173</v>
-      </c>
-      <c r="H1171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1171" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="J1171" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" s="1" t="n">
-        <v>1170</v>
-      </c>
-      <c r="B1172" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C1172" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D1172" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E1172" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F1172" t="n">
-        <v>28988</v>
-      </c>
-      <c r="G1172" t="n">
-        <v>-745931.9415154173</v>
-      </c>
-      <c r="H1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1172" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="J1172" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" s="1" t="n">
-        <v>1171</v>
-      </c>
-      <c r="B1173" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C1173" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D1173" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E1173" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F1173" t="n">
-        <v>52393</v>
-      </c>
-      <c r="G1173" t="n">
-        <v>-693538.9415154173</v>
-      </c>
-      <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" s="1" t="n">
-        <v>1172</v>
-      </c>
-      <c r="B1174" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C1174" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D1174" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E1174" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F1174" t="n">
-        <v>29244</v>
-      </c>
-      <c r="G1174" t="n">
-        <v>-722782.9415154173</v>
-      </c>
-      <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" s="1" t="n">
-        <v>1173</v>
-      </c>
-      <c r="B1175" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C1175" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D1175" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E1175" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F1175" t="n">
-        <v>90359.2694</v>
-      </c>
-      <c r="G1175" t="n">
-        <v>-813142.2109154173</v>
-      </c>
-      <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" s="1" t="n">
-        <v>1174</v>
-      </c>
-      <c r="B1176" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="C1176" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="D1176" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="E1176" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="F1176" t="n">
-        <v>22608</v>
-      </c>
-      <c r="G1176" t="n">
-        <v>-790534.2109154173</v>
-      </c>
-      <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" s="1" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B1177" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="C1177" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="D1177" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="E1177" t="n">
-        <v>1.868</v>
-      </c>
-      <c r="F1177" t="n">
-        <v>23411</v>
-      </c>
-      <c r="G1177" t="n">
-        <v>-767123.2109154173</v>
-      </c>
-      <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" s="1" t="n">
-        <v>1176</v>
-      </c>
-      <c r="B1178" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="C1178" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="D1178" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="E1178" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="F1178" t="n">
-        <v>30630</v>
-      </c>
-      <c r="G1178" t="n">
-        <v>-736493.2109154173</v>
-      </c>
-      <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" s="1" t="n">
-        <v>1177</v>
-      </c>
-      <c r="B1179" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="C1179" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="D1179" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="E1179" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="F1179" t="n">
-        <v>50855</v>
-      </c>
-      <c r="G1179" t="n">
-        <v>-685638.2109154173</v>
-      </c>
-      <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" s="1" t="n">
-        <v>1178</v>
-      </c>
-      <c r="B1180" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="C1180" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="D1180" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="E1180" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="F1180" t="n">
-        <v>25907</v>
-      </c>
-      <c r="G1180" t="n">
-        <v>-685638.2109154173</v>
-      </c>
-      <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" s="1" t="n">
-        <v>1179</v>
-      </c>
-      <c r="B1181" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C1181" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D1181" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="E1181" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F1181" t="n">
-        <v>28527</v>
-      </c>
-      <c r="G1181" t="n">
-        <v>-714165.2109154173</v>
-      </c>
-      <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" s="1" t="n">
-        <v>1180</v>
-      </c>
-      <c r="B1182" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C1182" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D1182" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E1182" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F1182" t="n">
-        <v>44715</v>
-      </c>
-      <c r="G1182" t="n">
-        <v>-758880.2109154173</v>
-      </c>
-      <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" s="1" t="n">
-        <v>1181</v>
-      </c>
-      <c r="B1183" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="C1183" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D1183" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="E1183" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F1183" t="n">
-        <v>54595</v>
-      </c>
-      <c r="G1183" t="n">
-        <v>-813475.2109154173</v>
-      </c>
-      <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" s="1" t="n">
-        <v>1182</v>
-      </c>
-      <c r="B1184" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C1184" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D1184" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E1184" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F1184" t="n">
-        <v>158657.2136</v>
-      </c>
-      <c r="G1184" t="n">
-        <v>-813475.2109154173</v>
-      </c>
-      <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" s="1" t="n">
-        <v>1183</v>
-      </c>
-      <c r="B1185" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="C1185" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D1185" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="E1185" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F1185" t="n">
-        <v>44265</v>
-      </c>
-      <c r="G1185" t="n">
-        <v>-813475.2109154173</v>
-      </c>
-      <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" s="1" t="n">
-        <v>1184</v>
-      </c>
-      <c r="B1186" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C1186" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D1186" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="E1186" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F1186" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1186" t="n">
-        <v>-813775.2109154173</v>
-      </c>
-      <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" s="1" t="n">
-        <v>1185</v>
-      </c>
-      <c r="B1187" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="C1187" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="D1187" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="E1187" t="n">
-        <v>1.861</v>
-      </c>
-      <c r="F1187" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1187" t="n">
-        <v>-813775.2109154173</v>
-      </c>
-      <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" s="1" t="n">
-        <v>1186</v>
-      </c>
-      <c r="B1188" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="C1188" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D1188" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="E1188" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F1188" t="n">
-        <v>300</v>
-      </c>
-      <c r="G1188" t="n">
-        <v>-813475.2109154173</v>
-      </c>
-      <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" s="1" t="n">
-        <v>1187</v>
-      </c>
-      <c r="B1189" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C1189" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D1189" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E1189" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F1189" t="n">
-        <v>41854</v>
-      </c>
-      <c r="G1189" t="n">
-        <v>-771621.2109154173</v>
-      </c>
-      <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" s="1" t="n">
-        <v>1188</v>
-      </c>
-      <c r="B1190" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C1190" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D1190" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E1190" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F1190" t="n">
-        <v>23326</v>
-      </c>
-      <c r="G1190" t="n">
-        <v>-771621.2109154173</v>
-      </c>
-      <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" s="1" t="n">
-        <v>1189</v>
-      </c>
-      <c r="B1191" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C1191" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D1191" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E1191" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F1191" t="n">
-        <v>47277</v>
-      </c>
-      <c r="G1191" t="n">
-        <v>-771621.2109154173</v>
-      </c>
-      <c r="H1191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1191" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J1191" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" s="1" t="n">
-        <v>1190</v>
-      </c>
-      <c r="B1192" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C1192" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="D1192" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E1192" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="F1192" t="n">
-        <v>18974</v>
-      </c>
-      <c r="G1192" t="n">
-        <v>-771621.2109154173</v>
-      </c>
-      <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" s="1" t="n">
-        <v>1191</v>
-      </c>
-      <c r="B1193" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C1193" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D1193" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E1193" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F1193" t="n">
-        <v>45850</v>
-      </c>
-      <c r="G1193" t="n">
-        <v>-725771.2109154173</v>
-      </c>
-      <c r="H1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J1193" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" s="1" t="n">
-        <v>1192</v>
-      </c>
-      <c r="B1194" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C1194" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D1194" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E1194" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F1194" t="n">
-        <v>44710</v>
-      </c>
-      <c r="G1194" t="n">
-        <v>-681061.2109154173</v>
-      </c>
-      <c r="H1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="J1194" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" s="1" t="n">
-        <v>1193</v>
-      </c>
-      <c r="B1195" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C1195" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="D1195" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E1195" t="n">
-        <v>1.862</v>
-      </c>
-      <c r="F1195" t="n">
-        <v>36132.4668</v>
-      </c>
-      <c r="G1195" t="n">
-        <v>-717193.6777154173</v>
-      </c>
-      <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="K1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -42599,11 +42361,13 @@
         <v>-687672.6777154173</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>1.862</v>
+      </c>
       <c r="J1196" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -42638,11 +42402,13 @@
         <v>-666081.6777154173</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J1197" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -42677,11 +42443,13 @@
         <v>-702227.6777154173</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>1.892</v>
+      </c>
       <c r="J1198" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -42716,11 +42484,13 @@
         <v>-662517.6777154173</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J1199" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -42755,11 +42525,13 @@
         <v>-629354.6777154173</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1.891</v>
+      </c>
       <c r="J1200" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -42794,11 +42566,13 @@
         <v>-671486.6777154173</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1.892</v>
+      </c>
       <c r="J1201" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -42833,11 +42607,13 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1.889</v>
+      </c>
       <c r="J1202" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -42872,11 +42648,13 @@
         <v>-707696.6777154173</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1.888</v>
+      </c>
       <c r="J1203" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -42911,11 +42689,13 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1.888</v>
+      </c>
       <c r="J1204" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -42950,11 +42730,13 @@
         <v>-742475.6777154173</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1205" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -42989,11 +42771,13 @@
         <v>-768646.6777154173</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1206" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -43028,11 +42812,13 @@
         <v>-743101.6777154173</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>1.883</v>
+      </c>
       <c r="J1207" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -43067,11 +42853,13 @@
         <v>-774105.6777154173</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1208" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -43106,11 +42894,13 @@
         <v>-809501.6777154173</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J1209" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -43145,11 +42935,13 @@
         <v>-785919.6777154173</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>1.88</v>
+      </c>
       <c r="J1210" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -43184,11 +42976,13 @@
         <v>-743077.6777154173</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>1.883</v>
+      </c>
       <c r="J1211" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -43223,11 +43017,13 @@
         <v>-784041.6777154173</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1212" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -43262,11 +43058,13 @@
         <v>-747755.6777154173</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1213" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -43301,11 +43099,13 @@
         <v>-776903.6777154173</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1214" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -43340,11 +43140,13 @@
         <v>-756263.6777154173</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>1.87</v>
+      </c>
       <c r="J1215" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -43379,11 +43181,13 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J1216" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -43418,11 +43222,13 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J1217" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -43457,11 +43263,13 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J1218" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -43496,11 +43304,13 @@
         <v>-718324.6777154173</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J1219" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -43535,11 +43345,13 @@
         <v>-759962.6777154173</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1.887</v>
+      </c>
       <c r="J1220" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -43574,11 +43386,13 @@
         <v>-806412.6777154173</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1221" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -43613,11 +43427,13 @@
         <v>-754724.6777154173</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1.883</v>
+      </c>
       <c r="J1222" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -43652,11 +43468,13 @@
         <v>-802505.6777154173</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1223" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -43691,11 +43509,13 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1.883</v>
+      </c>
       <c r="J1224" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -43730,11 +43550,13 @@
         <v>-845251.6777154173</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J1225" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -43775,7 +43597,7 @@
         <v>1.882</v>
       </c>
       <c r="J1226" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -43810,11 +43632,13 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1.882</v>
+      </c>
       <c r="J1227" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -43849,11 +43673,13 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1228" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -43888,11 +43714,13 @@
         <v>-820424.6777154173</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1229" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -43927,11 +43755,13 @@
         <v>-793151.6777154173</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1230" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -43966,11 +43796,13 @@
         <v>-836870.6777154173</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1.885</v>
+      </c>
       <c r="J1231" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -44005,11 +43837,13 @@
         <v>-886576.6777154173</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1.884</v>
+      </c>
       <c r="J1232" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -44050,7 +43884,7 @@
         <v>1.882</v>
       </c>
       <c r="J1233" t="n">
-        <v>1.856</v>
+        <v>1.863</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
